--- a/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
+++ b/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PIFURfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\indst\PIFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2634F1BA-5AA6-4A80-BB3F-D357D58AF3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="330" windowWidth="27555" windowHeight="13335"/>
+    <workbookView xWindow="52995" yWindow="570" windowWidth="13515" windowHeight="11805" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Table 5.2" sheetId="4" r:id="rId2"/>
-    <sheet name="Calculations" sheetId="5" r:id="rId3"/>
-    <sheet name="PIFURfE" sheetId="2" r:id="rId4"/>
+    <sheet name="Table 5.6" sheetId="6" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="5" r:id="rId4"/>
+    <sheet name="PIFURfE" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="1" hidden="1">1</definedName>
@@ -23,12 +25,22 @@
     <definedName name="Print_Area_MI">'Table 5.2'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Table 5.2'!$1:$13</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8868" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9008" uniqueCount="338">
   <si>
     <t>Percentage Industry Fuel Use Reduction for Electricity</t>
   </si>
@@ -952,18 +964,120 @@
   <si>
     <t>fossil powered combustion to electric.</t>
   </si>
+  <si>
+    <t>Released: October 2017</t>
+  </si>
+  <si>
+    <t>Next MECS will be fielded in 2019</t>
+  </si>
+  <si>
+    <t>Table 5.6    End Uses of Fuel Consumption, 2014;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Level: National and Regional Data; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Row: End Uses;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural </t>
+  </si>
+  <si>
+    <t>HGL (excluding</t>
+  </si>
+  <si>
+    <t>Electricity(a)</t>
+  </si>
+  <si>
+    <t>Diesel Fuel(b)</t>
+  </si>
+  <si>
+    <t>Gas(c)</t>
+  </si>
+  <si>
+    <t>natural gasoline)(d)</t>
+  </si>
+  <si>
+    <t>Other(e)</t>
+  </si>
+  <si>
+    <t>South Census Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Facility HVAC (f)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (a) 'Net Electricity' is obtained by summing purchases, transfers in, and generation from noncombustible renewable resources, minus quantities sold and transferred out. It does not include electricity inputs from onsite cogeneration or generation from combustible fuels because that energy has already been included as generating fuel (for example, coal).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (b) 'Distillate Fuel Oil' includes Nos. 1, 2, and 4 fuel oils and Nos. 1, 2, and 4 diesel fuels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (c) 'Natural Gas' includes natural gas obtained from utilities, local distribution companies, and any other supplier(s), such as independent gas producers, gas brokers, marketers, and any marketing subsidiaries of utilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (d) Hydrocarbon Gas Liquids '(HGL)' include ethane, ethylene, propane, propylene, normal butane, butylene, ethane-propane mixtures, propane-butane mixtures, and isobutane produced at refineries or natural gas processing plants, including plants that fractionate raw Natural Gas Liquids (NGL). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (e) 'Other' includes net steam (the sum of purchases, generation from renewables, and net transfers), and other energy that respondents indicated was used to produce heat and power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (f) Facility Heating, Ventilation, and Air Conditioning '(Facility HVAC)' excludes steam and hot water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    W=Withheld to avoid disclosing data for individual establishments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    S=Negative value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Notes: Totals may not equal sum of components because of independent rounding. The estimates presented in this table are for the total consumption of energy  (formerly total inputs of energy) for the production of heat, power, and lectricity generation, regardless of where the energy was produced.  Specifically, the estimates include the quantities of energy that were originally produced offsite and purchased by or transferred to the establishment, plus those that were produced onsite from other energy or input materials not classified as energy, or were extracted from captive (onsite) mines or wells. Allocations to specific end uses are made on the basis of reasonable approximations by respondents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Source: U.S. Energy Information Administration, Office of Energy Consumption and Efficiency Statistics, Form EIA-846, '2014 Manufacturing Energy Consumption Survey.' </t>
+  </si>
+  <si>
+    <t>Share of non-electricity fuels used for boilers, process heat, and HVAC for South Census Region</t>
+  </si>
+  <si>
+    <t>Share of non-electricity fuels used for other purposes for South Census Region</t>
+  </si>
+  <si>
+    <t>Weighted average fuel use reduction for South Census Region</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/consumption/manufacturing/data/2014/#r5</t>
+  </si>
+  <si>
+    <t>Table 5.6</t>
+  </si>
+  <si>
+    <t>Breakdown of Industrial Energy Use by End Use, South Census Region</t>
+  </si>
+  <si>
+    <t>NOTES FOR TX UPDATE:</t>
+  </si>
+  <si>
+    <t>existing methodology.</t>
+  </si>
+  <si>
+    <t>Updated the weighted average by end use values to reflect south census region and followed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1037,6 +1151,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1058,7 +1209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1093,14 +1244,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0096D7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1182,12 +1383,73 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="8">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="10">
+    <cellStyle name="Body: normal cell" xfId="7" xr:uid="{DAFB185E-969B-9E4F-B869-FED210734FC4}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="4" xr:uid="{095025B7-5DB0-B44E-8F4D-FD721907713E}"/>
+    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{14125562-447F-CF46-9B14-641D5B6D2C62}"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{879C3DE4-1549-6D46-8054-CA799BAA9C26}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="3"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Table title" xfId="5" xr:uid="{85671C5F-15CF-A34C-BA61-F5E722AE38E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1278,6 +1540,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1313,6 +1592,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1488,82 +1784,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="59.265625" customWidth="1"/>
+    <col min="2" max="2" width="59.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D3" s="32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="33">
         <v>2013</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D5" s="33">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="D6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="63" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D7" s="63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="32" t="s">
         <v>283</v>
       </c>
@@ -1616,474 +1931,490 @@
         <v>282</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" location="r5" xr:uid="{F38AAF50-3C85-0848-A3A0-84B1E713C231}"/>
+    <hyperlink ref="D7" r:id="rId2" location="r5" display="https://www.eia.gov/consumption/manufacturing/data/2014/ - r5" xr:uid="{10556B49-0EB6-784F-B95A-D3CECE8B4419}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr syncVertical="1" syncRef="C14" transitionEvaluation="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr syncVertical="1" syncRef="C7" transitionEvaluation="1"/>
   <dimension ref="A1:U1920"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.86328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="18.796875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.265625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="83.265625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="83.33203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4" max="9" width="18.86328125" style="18"/>
-    <col min="10" max="10" width="18.86328125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="18" customWidth="1"/>
-    <col min="12" max="256" width="18.86328125" style="18"/>
-    <col min="257" max="257" width="11.265625" style="18" customWidth="1"/>
-    <col min="258" max="258" width="83.265625" style="18" customWidth="1"/>
+    <col min="4" max="9" width="18.796875" style="18"/>
+    <col min="10" max="10" width="18.796875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12" max="256" width="18.796875" style="18"/>
+    <col min="257" max="257" width="11.33203125" style="18" customWidth="1"/>
+    <col min="258" max="258" width="83.33203125" style="18" customWidth="1"/>
     <col min="259" max="259" width="20.1328125" style="18" customWidth="1"/>
-    <col min="260" max="265" width="18.86328125" style="18"/>
-    <col min="266" max="266" width="18.86328125" style="18" customWidth="1"/>
-    <col min="267" max="267" width="12.3984375" style="18" customWidth="1"/>
-    <col min="268" max="512" width="18.86328125" style="18"/>
-    <col min="513" max="513" width="11.265625" style="18" customWidth="1"/>
-    <col min="514" max="514" width="83.265625" style="18" customWidth="1"/>
+    <col min="260" max="265" width="18.796875" style="18"/>
+    <col min="266" max="266" width="18.796875" style="18" customWidth="1"/>
+    <col min="267" max="267" width="12.33203125" style="18" customWidth="1"/>
+    <col min="268" max="512" width="18.796875" style="18"/>
+    <col min="513" max="513" width="11.33203125" style="18" customWidth="1"/>
+    <col min="514" max="514" width="83.33203125" style="18" customWidth="1"/>
     <col min="515" max="515" width="20.1328125" style="18" customWidth="1"/>
-    <col min="516" max="521" width="18.86328125" style="18"/>
-    <col min="522" max="522" width="18.86328125" style="18" customWidth="1"/>
-    <col min="523" max="523" width="12.3984375" style="18" customWidth="1"/>
-    <col min="524" max="768" width="18.86328125" style="18"/>
-    <col min="769" max="769" width="11.265625" style="18" customWidth="1"/>
-    <col min="770" max="770" width="83.265625" style="18" customWidth="1"/>
+    <col min="516" max="521" width="18.796875" style="18"/>
+    <col min="522" max="522" width="18.796875" style="18" customWidth="1"/>
+    <col min="523" max="523" width="12.33203125" style="18" customWidth="1"/>
+    <col min="524" max="768" width="18.796875" style="18"/>
+    <col min="769" max="769" width="11.33203125" style="18" customWidth="1"/>
+    <col min="770" max="770" width="83.33203125" style="18" customWidth="1"/>
     <col min="771" max="771" width="20.1328125" style="18" customWidth="1"/>
-    <col min="772" max="777" width="18.86328125" style="18"/>
-    <col min="778" max="778" width="18.86328125" style="18" customWidth="1"/>
-    <col min="779" max="779" width="12.3984375" style="18" customWidth="1"/>
-    <col min="780" max="1024" width="18.86328125" style="18"/>
-    <col min="1025" max="1025" width="11.265625" style="18" customWidth="1"/>
-    <col min="1026" max="1026" width="83.265625" style="18" customWidth="1"/>
+    <col min="772" max="777" width="18.796875" style="18"/>
+    <col min="778" max="778" width="18.796875" style="18" customWidth="1"/>
+    <col min="779" max="779" width="12.33203125" style="18" customWidth="1"/>
+    <col min="780" max="1024" width="18.796875" style="18"/>
+    <col min="1025" max="1025" width="11.33203125" style="18" customWidth="1"/>
+    <col min="1026" max="1026" width="83.33203125" style="18" customWidth="1"/>
     <col min="1027" max="1027" width="20.1328125" style="18" customWidth="1"/>
-    <col min="1028" max="1033" width="18.86328125" style="18"/>
-    <col min="1034" max="1034" width="18.86328125" style="18" customWidth="1"/>
-    <col min="1035" max="1035" width="12.3984375" style="18" customWidth="1"/>
-    <col min="1036" max="1280" width="18.86328125" style="18"/>
-    <col min="1281" max="1281" width="11.265625" style="18" customWidth="1"/>
-    <col min="1282" max="1282" width="83.265625" style="18" customWidth="1"/>
+    <col min="1028" max="1033" width="18.796875" style="18"/>
+    <col min="1034" max="1034" width="18.796875" style="18" customWidth="1"/>
+    <col min="1035" max="1035" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1036" max="1280" width="18.796875" style="18"/>
+    <col min="1281" max="1281" width="11.33203125" style="18" customWidth="1"/>
+    <col min="1282" max="1282" width="83.33203125" style="18" customWidth="1"/>
     <col min="1283" max="1283" width="20.1328125" style="18" customWidth="1"/>
-    <col min="1284" max="1289" width="18.86328125" style="18"/>
-    <col min="1290" max="1290" width="18.86328125" style="18" customWidth="1"/>
-    <col min="1291" max="1291" width="12.3984375" style="18" customWidth="1"/>
-    <col min="1292" max="1536" width="18.86328125" style="18"/>
-    <col min="1537" max="1537" width="11.265625" style="18" customWidth="1"/>
-    <col min="1538" max="1538" width="83.265625" style="18" customWidth="1"/>
+    <col min="1284" max="1289" width="18.796875" style="18"/>
+    <col min="1290" max="1290" width="18.796875" style="18" customWidth="1"/>
+    <col min="1291" max="1291" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1292" max="1536" width="18.796875" style="18"/>
+    <col min="1537" max="1537" width="11.33203125" style="18" customWidth="1"/>
+    <col min="1538" max="1538" width="83.33203125" style="18" customWidth="1"/>
     <col min="1539" max="1539" width="20.1328125" style="18" customWidth="1"/>
-    <col min="1540" max="1545" width="18.86328125" style="18"/>
-    <col min="1546" max="1546" width="18.86328125" style="18" customWidth="1"/>
-    <col min="1547" max="1547" width="12.3984375" style="18" customWidth="1"/>
-    <col min="1548" max="1792" width="18.86328125" style="18"/>
-    <col min="1793" max="1793" width="11.265625" style="18" customWidth="1"/>
-    <col min="1794" max="1794" width="83.265625" style="18" customWidth="1"/>
+    <col min="1540" max="1545" width="18.796875" style="18"/>
+    <col min="1546" max="1546" width="18.796875" style="18" customWidth="1"/>
+    <col min="1547" max="1547" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1548" max="1792" width="18.796875" style="18"/>
+    <col min="1793" max="1793" width="11.33203125" style="18" customWidth="1"/>
+    <col min="1794" max="1794" width="83.33203125" style="18" customWidth="1"/>
     <col min="1795" max="1795" width="20.1328125" style="18" customWidth="1"/>
-    <col min="1796" max="1801" width="18.86328125" style="18"/>
-    <col min="1802" max="1802" width="18.86328125" style="18" customWidth="1"/>
-    <col min="1803" max="1803" width="12.3984375" style="18" customWidth="1"/>
-    <col min="1804" max="2048" width="18.86328125" style="18"/>
-    <col min="2049" max="2049" width="11.265625" style="18" customWidth="1"/>
-    <col min="2050" max="2050" width="83.265625" style="18" customWidth="1"/>
+    <col min="1796" max="1801" width="18.796875" style="18"/>
+    <col min="1802" max="1802" width="18.796875" style="18" customWidth="1"/>
+    <col min="1803" max="1803" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1804" max="2048" width="18.796875" style="18"/>
+    <col min="2049" max="2049" width="11.33203125" style="18" customWidth="1"/>
+    <col min="2050" max="2050" width="83.33203125" style="18" customWidth="1"/>
     <col min="2051" max="2051" width="20.1328125" style="18" customWidth="1"/>
-    <col min="2052" max="2057" width="18.86328125" style="18"/>
-    <col min="2058" max="2058" width="18.86328125" style="18" customWidth="1"/>
-    <col min="2059" max="2059" width="12.3984375" style="18" customWidth="1"/>
-    <col min="2060" max="2304" width="18.86328125" style="18"/>
-    <col min="2305" max="2305" width="11.265625" style="18" customWidth="1"/>
-    <col min="2306" max="2306" width="83.265625" style="18" customWidth="1"/>
+    <col min="2052" max="2057" width="18.796875" style="18"/>
+    <col min="2058" max="2058" width="18.796875" style="18" customWidth="1"/>
+    <col min="2059" max="2059" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2060" max="2304" width="18.796875" style="18"/>
+    <col min="2305" max="2305" width="11.33203125" style="18" customWidth="1"/>
+    <col min="2306" max="2306" width="83.33203125" style="18" customWidth="1"/>
     <col min="2307" max="2307" width="20.1328125" style="18" customWidth="1"/>
-    <col min="2308" max="2313" width="18.86328125" style="18"/>
-    <col min="2314" max="2314" width="18.86328125" style="18" customWidth="1"/>
-    <col min="2315" max="2315" width="12.3984375" style="18" customWidth="1"/>
-    <col min="2316" max="2560" width="18.86328125" style="18"/>
-    <col min="2561" max="2561" width="11.265625" style="18" customWidth="1"/>
-    <col min="2562" max="2562" width="83.265625" style="18" customWidth="1"/>
+    <col min="2308" max="2313" width="18.796875" style="18"/>
+    <col min="2314" max="2314" width="18.796875" style="18" customWidth="1"/>
+    <col min="2315" max="2315" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2316" max="2560" width="18.796875" style="18"/>
+    <col min="2561" max="2561" width="11.33203125" style="18" customWidth="1"/>
+    <col min="2562" max="2562" width="83.33203125" style="18" customWidth="1"/>
     <col min="2563" max="2563" width="20.1328125" style="18" customWidth="1"/>
-    <col min="2564" max="2569" width="18.86328125" style="18"/>
-    <col min="2570" max="2570" width="18.86328125" style="18" customWidth="1"/>
-    <col min="2571" max="2571" width="12.3984375" style="18" customWidth="1"/>
-    <col min="2572" max="2816" width="18.86328125" style="18"/>
-    <col min="2817" max="2817" width="11.265625" style="18" customWidth="1"/>
-    <col min="2818" max="2818" width="83.265625" style="18" customWidth="1"/>
+    <col min="2564" max="2569" width="18.796875" style="18"/>
+    <col min="2570" max="2570" width="18.796875" style="18" customWidth="1"/>
+    <col min="2571" max="2571" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2572" max="2816" width="18.796875" style="18"/>
+    <col min="2817" max="2817" width="11.33203125" style="18" customWidth="1"/>
+    <col min="2818" max="2818" width="83.33203125" style="18" customWidth="1"/>
     <col min="2819" max="2819" width="20.1328125" style="18" customWidth="1"/>
-    <col min="2820" max="2825" width="18.86328125" style="18"/>
-    <col min="2826" max="2826" width="18.86328125" style="18" customWidth="1"/>
-    <col min="2827" max="2827" width="12.3984375" style="18" customWidth="1"/>
-    <col min="2828" max="3072" width="18.86328125" style="18"/>
-    <col min="3073" max="3073" width="11.265625" style="18" customWidth="1"/>
-    <col min="3074" max="3074" width="83.265625" style="18" customWidth="1"/>
+    <col min="2820" max="2825" width="18.796875" style="18"/>
+    <col min="2826" max="2826" width="18.796875" style="18" customWidth="1"/>
+    <col min="2827" max="2827" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2828" max="3072" width="18.796875" style="18"/>
+    <col min="3073" max="3073" width="11.33203125" style="18" customWidth="1"/>
+    <col min="3074" max="3074" width="83.33203125" style="18" customWidth="1"/>
     <col min="3075" max="3075" width="20.1328125" style="18" customWidth="1"/>
-    <col min="3076" max="3081" width="18.86328125" style="18"/>
-    <col min="3082" max="3082" width="18.86328125" style="18" customWidth="1"/>
-    <col min="3083" max="3083" width="12.3984375" style="18" customWidth="1"/>
-    <col min="3084" max="3328" width="18.86328125" style="18"/>
-    <col min="3329" max="3329" width="11.265625" style="18" customWidth="1"/>
-    <col min="3330" max="3330" width="83.265625" style="18" customWidth="1"/>
+    <col min="3076" max="3081" width="18.796875" style="18"/>
+    <col min="3082" max="3082" width="18.796875" style="18" customWidth="1"/>
+    <col min="3083" max="3083" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3084" max="3328" width="18.796875" style="18"/>
+    <col min="3329" max="3329" width="11.33203125" style="18" customWidth="1"/>
+    <col min="3330" max="3330" width="83.33203125" style="18" customWidth="1"/>
     <col min="3331" max="3331" width="20.1328125" style="18" customWidth="1"/>
-    <col min="3332" max="3337" width="18.86328125" style="18"/>
-    <col min="3338" max="3338" width="18.86328125" style="18" customWidth="1"/>
-    <col min="3339" max="3339" width="12.3984375" style="18" customWidth="1"/>
-    <col min="3340" max="3584" width="18.86328125" style="18"/>
-    <col min="3585" max="3585" width="11.265625" style="18" customWidth="1"/>
-    <col min="3586" max="3586" width="83.265625" style="18" customWidth="1"/>
+    <col min="3332" max="3337" width="18.796875" style="18"/>
+    <col min="3338" max="3338" width="18.796875" style="18" customWidth="1"/>
+    <col min="3339" max="3339" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3340" max="3584" width="18.796875" style="18"/>
+    <col min="3585" max="3585" width="11.33203125" style="18" customWidth="1"/>
+    <col min="3586" max="3586" width="83.33203125" style="18" customWidth="1"/>
     <col min="3587" max="3587" width="20.1328125" style="18" customWidth="1"/>
-    <col min="3588" max="3593" width="18.86328125" style="18"/>
-    <col min="3594" max="3594" width="18.86328125" style="18" customWidth="1"/>
-    <col min="3595" max="3595" width="12.3984375" style="18" customWidth="1"/>
-    <col min="3596" max="3840" width="18.86328125" style="18"/>
-    <col min="3841" max="3841" width="11.265625" style="18" customWidth="1"/>
-    <col min="3842" max="3842" width="83.265625" style="18" customWidth="1"/>
+    <col min="3588" max="3593" width="18.796875" style="18"/>
+    <col min="3594" max="3594" width="18.796875" style="18" customWidth="1"/>
+    <col min="3595" max="3595" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3596" max="3840" width="18.796875" style="18"/>
+    <col min="3841" max="3841" width="11.33203125" style="18" customWidth="1"/>
+    <col min="3842" max="3842" width="83.33203125" style="18" customWidth="1"/>
     <col min="3843" max="3843" width="20.1328125" style="18" customWidth="1"/>
-    <col min="3844" max="3849" width="18.86328125" style="18"/>
-    <col min="3850" max="3850" width="18.86328125" style="18" customWidth="1"/>
-    <col min="3851" max="3851" width="12.3984375" style="18" customWidth="1"/>
-    <col min="3852" max="4096" width="18.86328125" style="18"/>
-    <col min="4097" max="4097" width="11.265625" style="18" customWidth="1"/>
-    <col min="4098" max="4098" width="83.265625" style="18" customWidth="1"/>
+    <col min="3844" max="3849" width="18.796875" style="18"/>
+    <col min="3850" max="3850" width="18.796875" style="18" customWidth="1"/>
+    <col min="3851" max="3851" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3852" max="4096" width="18.796875" style="18"/>
+    <col min="4097" max="4097" width="11.33203125" style="18" customWidth="1"/>
+    <col min="4098" max="4098" width="83.33203125" style="18" customWidth="1"/>
     <col min="4099" max="4099" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4100" max="4105" width="18.86328125" style="18"/>
-    <col min="4106" max="4106" width="18.86328125" style="18" customWidth="1"/>
-    <col min="4107" max="4107" width="12.3984375" style="18" customWidth="1"/>
-    <col min="4108" max="4352" width="18.86328125" style="18"/>
-    <col min="4353" max="4353" width="11.265625" style="18" customWidth="1"/>
-    <col min="4354" max="4354" width="83.265625" style="18" customWidth="1"/>
+    <col min="4100" max="4105" width="18.796875" style="18"/>
+    <col min="4106" max="4106" width="18.796875" style="18" customWidth="1"/>
+    <col min="4107" max="4107" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4108" max="4352" width="18.796875" style="18"/>
+    <col min="4353" max="4353" width="11.33203125" style="18" customWidth="1"/>
+    <col min="4354" max="4354" width="83.33203125" style="18" customWidth="1"/>
     <col min="4355" max="4355" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4356" max="4361" width="18.86328125" style="18"/>
-    <col min="4362" max="4362" width="18.86328125" style="18" customWidth="1"/>
-    <col min="4363" max="4363" width="12.3984375" style="18" customWidth="1"/>
-    <col min="4364" max="4608" width="18.86328125" style="18"/>
-    <col min="4609" max="4609" width="11.265625" style="18" customWidth="1"/>
-    <col min="4610" max="4610" width="83.265625" style="18" customWidth="1"/>
+    <col min="4356" max="4361" width="18.796875" style="18"/>
+    <col min="4362" max="4362" width="18.796875" style="18" customWidth="1"/>
+    <col min="4363" max="4363" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4364" max="4608" width="18.796875" style="18"/>
+    <col min="4609" max="4609" width="11.33203125" style="18" customWidth="1"/>
+    <col min="4610" max="4610" width="83.33203125" style="18" customWidth="1"/>
     <col min="4611" max="4611" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4612" max="4617" width="18.86328125" style="18"/>
-    <col min="4618" max="4618" width="18.86328125" style="18" customWidth="1"/>
-    <col min="4619" max="4619" width="12.3984375" style="18" customWidth="1"/>
-    <col min="4620" max="4864" width="18.86328125" style="18"/>
-    <col min="4865" max="4865" width="11.265625" style="18" customWidth="1"/>
-    <col min="4866" max="4866" width="83.265625" style="18" customWidth="1"/>
+    <col min="4612" max="4617" width="18.796875" style="18"/>
+    <col min="4618" max="4618" width="18.796875" style="18" customWidth="1"/>
+    <col min="4619" max="4619" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4620" max="4864" width="18.796875" style="18"/>
+    <col min="4865" max="4865" width="11.33203125" style="18" customWidth="1"/>
+    <col min="4866" max="4866" width="83.33203125" style="18" customWidth="1"/>
     <col min="4867" max="4867" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4868" max="4873" width="18.86328125" style="18"/>
-    <col min="4874" max="4874" width="18.86328125" style="18" customWidth="1"/>
-    <col min="4875" max="4875" width="12.3984375" style="18" customWidth="1"/>
-    <col min="4876" max="5120" width="18.86328125" style="18"/>
-    <col min="5121" max="5121" width="11.265625" style="18" customWidth="1"/>
-    <col min="5122" max="5122" width="83.265625" style="18" customWidth="1"/>
+    <col min="4868" max="4873" width="18.796875" style="18"/>
+    <col min="4874" max="4874" width="18.796875" style="18" customWidth="1"/>
+    <col min="4875" max="4875" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4876" max="5120" width="18.796875" style="18"/>
+    <col min="5121" max="5121" width="11.33203125" style="18" customWidth="1"/>
+    <col min="5122" max="5122" width="83.33203125" style="18" customWidth="1"/>
     <col min="5123" max="5123" width="20.1328125" style="18" customWidth="1"/>
-    <col min="5124" max="5129" width="18.86328125" style="18"/>
-    <col min="5130" max="5130" width="18.86328125" style="18" customWidth="1"/>
-    <col min="5131" max="5131" width="12.3984375" style="18" customWidth="1"/>
-    <col min="5132" max="5376" width="18.86328125" style="18"/>
-    <col min="5377" max="5377" width="11.265625" style="18" customWidth="1"/>
-    <col min="5378" max="5378" width="83.265625" style="18" customWidth="1"/>
+    <col min="5124" max="5129" width="18.796875" style="18"/>
+    <col min="5130" max="5130" width="18.796875" style="18" customWidth="1"/>
+    <col min="5131" max="5131" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5132" max="5376" width="18.796875" style="18"/>
+    <col min="5377" max="5377" width="11.33203125" style="18" customWidth="1"/>
+    <col min="5378" max="5378" width="83.33203125" style="18" customWidth="1"/>
     <col min="5379" max="5379" width="20.1328125" style="18" customWidth="1"/>
-    <col min="5380" max="5385" width="18.86328125" style="18"/>
-    <col min="5386" max="5386" width="18.86328125" style="18" customWidth="1"/>
-    <col min="5387" max="5387" width="12.3984375" style="18" customWidth="1"/>
-    <col min="5388" max="5632" width="18.86328125" style="18"/>
-    <col min="5633" max="5633" width="11.265625" style="18" customWidth="1"/>
-    <col min="5634" max="5634" width="83.265625" style="18" customWidth="1"/>
+    <col min="5380" max="5385" width="18.796875" style="18"/>
+    <col min="5386" max="5386" width="18.796875" style="18" customWidth="1"/>
+    <col min="5387" max="5387" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5388" max="5632" width="18.796875" style="18"/>
+    <col min="5633" max="5633" width="11.33203125" style="18" customWidth="1"/>
+    <col min="5634" max="5634" width="83.33203125" style="18" customWidth="1"/>
     <col min="5635" max="5635" width="20.1328125" style="18" customWidth="1"/>
-    <col min="5636" max="5641" width="18.86328125" style="18"/>
-    <col min="5642" max="5642" width="18.86328125" style="18" customWidth="1"/>
-    <col min="5643" max="5643" width="12.3984375" style="18" customWidth="1"/>
-    <col min="5644" max="5888" width="18.86328125" style="18"/>
-    <col min="5889" max="5889" width="11.265625" style="18" customWidth="1"/>
-    <col min="5890" max="5890" width="83.265625" style="18" customWidth="1"/>
+    <col min="5636" max="5641" width="18.796875" style="18"/>
+    <col min="5642" max="5642" width="18.796875" style="18" customWidth="1"/>
+    <col min="5643" max="5643" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5644" max="5888" width="18.796875" style="18"/>
+    <col min="5889" max="5889" width="11.33203125" style="18" customWidth="1"/>
+    <col min="5890" max="5890" width="83.33203125" style="18" customWidth="1"/>
     <col min="5891" max="5891" width="20.1328125" style="18" customWidth="1"/>
-    <col min="5892" max="5897" width="18.86328125" style="18"/>
-    <col min="5898" max="5898" width="18.86328125" style="18" customWidth="1"/>
-    <col min="5899" max="5899" width="12.3984375" style="18" customWidth="1"/>
-    <col min="5900" max="6144" width="18.86328125" style="18"/>
-    <col min="6145" max="6145" width="11.265625" style="18" customWidth="1"/>
-    <col min="6146" max="6146" width="83.265625" style="18" customWidth="1"/>
+    <col min="5892" max="5897" width="18.796875" style="18"/>
+    <col min="5898" max="5898" width="18.796875" style="18" customWidth="1"/>
+    <col min="5899" max="5899" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5900" max="6144" width="18.796875" style="18"/>
+    <col min="6145" max="6145" width="11.33203125" style="18" customWidth="1"/>
+    <col min="6146" max="6146" width="83.33203125" style="18" customWidth="1"/>
     <col min="6147" max="6147" width="20.1328125" style="18" customWidth="1"/>
-    <col min="6148" max="6153" width="18.86328125" style="18"/>
-    <col min="6154" max="6154" width="18.86328125" style="18" customWidth="1"/>
-    <col min="6155" max="6155" width="12.3984375" style="18" customWidth="1"/>
-    <col min="6156" max="6400" width="18.86328125" style="18"/>
-    <col min="6401" max="6401" width="11.265625" style="18" customWidth="1"/>
-    <col min="6402" max="6402" width="83.265625" style="18" customWidth="1"/>
+    <col min="6148" max="6153" width="18.796875" style="18"/>
+    <col min="6154" max="6154" width="18.796875" style="18" customWidth="1"/>
+    <col min="6155" max="6155" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6156" max="6400" width="18.796875" style="18"/>
+    <col min="6401" max="6401" width="11.33203125" style="18" customWidth="1"/>
+    <col min="6402" max="6402" width="83.33203125" style="18" customWidth="1"/>
     <col min="6403" max="6403" width="20.1328125" style="18" customWidth="1"/>
-    <col min="6404" max="6409" width="18.86328125" style="18"/>
-    <col min="6410" max="6410" width="18.86328125" style="18" customWidth="1"/>
-    <col min="6411" max="6411" width="12.3984375" style="18" customWidth="1"/>
-    <col min="6412" max="6656" width="18.86328125" style="18"/>
-    <col min="6657" max="6657" width="11.265625" style="18" customWidth="1"/>
-    <col min="6658" max="6658" width="83.265625" style="18" customWidth="1"/>
+    <col min="6404" max="6409" width="18.796875" style="18"/>
+    <col min="6410" max="6410" width="18.796875" style="18" customWidth="1"/>
+    <col min="6411" max="6411" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6412" max="6656" width="18.796875" style="18"/>
+    <col min="6657" max="6657" width="11.33203125" style="18" customWidth="1"/>
+    <col min="6658" max="6658" width="83.33203125" style="18" customWidth="1"/>
     <col min="6659" max="6659" width="20.1328125" style="18" customWidth="1"/>
-    <col min="6660" max="6665" width="18.86328125" style="18"/>
-    <col min="6666" max="6666" width="18.86328125" style="18" customWidth="1"/>
-    <col min="6667" max="6667" width="12.3984375" style="18" customWidth="1"/>
-    <col min="6668" max="6912" width="18.86328125" style="18"/>
-    <col min="6913" max="6913" width="11.265625" style="18" customWidth="1"/>
-    <col min="6914" max="6914" width="83.265625" style="18" customWidth="1"/>
+    <col min="6660" max="6665" width="18.796875" style="18"/>
+    <col min="6666" max="6666" width="18.796875" style="18" customWidth="1"/>
+    <col min="6667" max="6667" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6668" max="6912" width="18.796875" style="18"/>
+    <col min="6913" max="6913" width="11.33203125" style="18" customWidth="1"/>
+    <col min="6914" max="6914" width="83.33203125" style="18" customWidth="1"/>
     <col min="6915" max="6915" width="20.1328125" style="18" customWidth="1"/>
-    <col min="6916" max="6921" width="18.86328125" style="18"/>
-    <col min="6922" max="6922" width="18.86328125" style="18" customWidth="1"/>
-    <col min="6923" max="6923" width="12.3984375" style="18" customWidth="1"/>
-    <col min="6924" max="7168" width="18.86328125" style="18"/>
-    <col min="7169" max="7169" width="11.265625" style="18" customWidth="1"/>
-    <col min="7170" max="7170" width="83.265625" style="18" customWidth="1"/>
+    <col min="6916" max="6921" width="18.796875" style="18"/>
+    <col min="6922" max="6922" width="18.796875" style="18" customWidth="1"/>
+    <col min="6923" max="6923" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6924" max="7168" width="18.796875" style="18"/>
+    <col min="7169" max="7169" width="11.33203125" style="18" customWidth="1"/>
+    <col min="7170" max="7170" width="83.33203125" style="18" customWidth="1"/>
     <col min="7171" max="7171" width="20.1328125" style="18" customWidth="1"/>
-    <col min="7172" max="7177" width="18.86328125" style="18"/>
-    <col min="7178" max="7178" width="18.86328125" style="18" customWidth="1"/>
-    <col min="7179" max="7179" width="12.3984375" style="18" customWidth="1"/>
-    <col min="7180" max="7424" width="18.86328125" style="18"/>
-    <col min="7425" max="7425" width="11.265625" style="18" customWidth="1"/>
-    <col min="7426" max="7426" width="83.265625" style="18" customWidth="1"/>
+    <col min="7172" max="7177" width="18.796875" style="18"/>
+    <col min="7178" max="7178" width="18.796875" style="18" customWidth="1"/>
+    <col min="7179" max="7179" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7180" max="7424" width="18.796875" style="18"/>
+    <col min="7425" max="7425" width="11.33203125" style="18" customWidth="1"/>
+    <col min="7426" max="7426" width="83.33203125" style="18" customWidth="1"/>
     <col min="7427" max="7427" width="20.1328125" style="18" customWidth="1"/>
-    <col min="7428" max="7433" width="18.86328125" style="18"/>
-    <col min="7434" max="7434" width="18.86328125" style="18" customWidth="1"/>
-    <col min="7435" max="7435" width="12.3984375" style="18" customWidth="1"/>
-    <col min="7436" max="7680" width="18.86328125" style="18"/>
-    <col min="7681" max="7681" width="11.265625" style="18" customWidth="1"/>
-    <col min="7682" max="7682" width="83.265625" style="18" customWidth="1"/>
+    <col min="7428" max="7433" width="18.796875" style="18"/>
+    <col min="7434" max="7434" width="18.796875" style="18" customWidth="1"/>
+    <col min="7435" max="7435" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7436" max="7680" width="18.796875" style="18"/>
+    <col min="7681" max="7681" width="11.33203125" style="18" customWidth="1"/>
+    <col min="7682" max="7682" width="83.33203125" style="18" customWidth="1"/>
     <col min="7683" max="7683" width="20.1328125" style="18" customWidth="1"/>
-    <col min="7684" max="7689" width="18.86328125" style="18"/>
-    <col min="7690" max="7690" width="18.86328125" style="18" customWidth="1"/>
-    <col min="7691" max="7691" width="12.3984375" style="18" customWidth="1"/>
-    <col min="7692" max="7936" width="18.86328125" style="18"/>
-    <col min="7937" max="7937" width="11.265625" style="18" customWidth="1"/>
-    <col min="7938" max="7938" width="83.265625" style="18" customWidth="1"/>
+    <col min="7684" max="7689" width="18.796875" style="18"/>
+    <col min="7690" max="7690" width="18.796875" style="18" customWidth="1"/>
+    <col min="7691" max="7691" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7692" max="7936" width="18.796875" style="18"/>
+    <col min="7937" max="7937" width="11.33203125" style="18" customWidth="1"/>
+    <col min="7938" max="7938" width="83.33203125" style="18" customWidth="1"/>
     <col min="7939" max="7939" width="20.1328125" style="18" customWidth="1"/>
-    <col min="7940" max="7945" width="18.86328125" style="18"/>
-    <col min="7946" max="7946" width="18.86328125" style="18" customWidth="1"/>
-    <col min="7947" max="7947" width="12.3984375" style="18" customWidth="1"/>
-    <col min="7948" max="8192" width="18.86328125" style="18"/>
-    <col min="8193" max="8193" width="11.265625" style="18" customWidth="1"/>
-    <col min="8194" max="8194" width="83.265625" style="18" customWidth="1"/>
+    <col min="7940" max="7945" width="18.796875" style="18"/>
+    <col min="7946" max="7946" width="18.796875" style="18" customWidth="1"/>
+    <col min="7947" max="7947" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7948" max="8192" width="18.796875" style="18"/>
+    <col min="8193" max="8193" width="11.33203125" style="18" customWidth="1"/>
+    <col min="8194" max="8194" width="83.33203125" style="18" customWidth="1"/>
     <col min="8195" max="8195" width="20.1328125" style="18" customWidth="1"/>
-    <col min="8196" max="8201" width="18.86328125" style="18"/>
-    <col min="8202" max="8202" width="18.86328125" style="18" customWidth="1"/>
-    <col min="8203" max="8203" width="12.3984375" style="18" customWidth="1"/>
-    <col min="8204" max="8448" width="18.86328125" style="18"/>
-    <col min="8449" max="8449" width="11.265625" style="18" customWidth="1"/>
-    <col min="8450" max="8450" width="83.265625" style="18" customWidth="1"/>
+    <col min="8196" max="8201" width="18.796875" style="18"/>
+    <col min="8202" max="8202" width="18.796875" style="18" customWidth="1"/>
+    <col min="8203" max="8203" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8204" max="8448" width="18.796875" style="18"/>
+    <col min="8449" max="8449" width="11.33203125" style="18" customWidth="1"/>
+    <col min="8450" max="8450" width="83.33203125" style="18" customWidth="1"/>
     <col min="8451" max="8451" width="20.1328125" style="18" customWidth="1"/>
-    <col min="8452" max="8457" width="18.86328125" style="18"/>
-    <col min="8458" max="8458" width="18.86328125" style="18" customWidth="1"/>
-    <col min="8459" max="8459" width="12.3984375" style="18" customWidth="1"/>
-    <col min="8460" max="8704" width="18.86328125" style="18"/>
-    <col min="8705" max="8705" width="11.265625" style="18" customWidth="1"/>
-    <col min="8706" max="8706" width="83.265625" style="18" customWidth="1"/>
+    <col min="8452" max="8457" width="18.796875" style="18"/>
+    <col min="8458" max="8458" width="18.796875" style="18" customWidth="1"/>
+    <col min="8459" max="8459" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8460" max="8704" width="18.796875" style="18"/>
+    <col min="8705" max="8705" width="11.33203125" style="18" customWidth="1"/>
+    <col min="8706" max="8706" width="83.33203125" style="18" customWidth="1"/>
     <col min="8707" max="8707" width="20.1328125" style="18" customWidth="1"/>
-    <col min="8708" max="8713" width="18.86328125" style="18"/>
-    <col min="8714" max="8714" width="18.86328125" style="18" customWidth="1"/>
-    <col min="8715" max="8715" width="12.3984375" style="18" customWidth="1"/>
-    <col min="8716" max="8960" width="18.86328125" style="18"/>
-    <col min="8961" max="8961" width="11.265625" style="18" customWidth="1"/>
-    <col min="8962" max="8962" width="83.265625" style="18" customWidth="1"/>
+    <col min="8708" max="8713" width="18.796875" style="18"/>
+    <col min="8714" max="8714" width="18.796875" style="18" customWidth="1"/>
+    <col min="8715" max="8715" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8716" max="8960" width="18.796875" style="18"/>
+    <col min="8961" max="8961" width="11.33203125" style="18" customWidth="1"/>
+    <col min="8962" max="8962" width="83.33203125" style="18" customWidth="1"/>
     <col min="8963" max="8963" width="20.1328125" style="18" customWidth="1"/>
-    <col min="8964" max="8969" width="18.86328125" style="18"/>
-    <col min="8970" max="8970" width="18.86328125" style="18" customWidth="1"/>
-    <col min="8971" max="8971" width="12.3984375" style="18" customWidth="1"/>
-    <col min="8972" max="9216" width="18.86328125" style="18"/>
-    <col min="9217" max="9217" width="11.265625" style="18" customWidth="1"/>
-    <col min="9218" max="9218" width="83.265625" style="18" customWidth="1"/>
+    <col min="8964" max="8969" width="18.796875" style="18"/>
+    <col min="8970" max="8970" width="18.796875" style="18" customWidth="1"/>
+    <col min="8971" max="8971" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8972" max="9216" width="18.796875" style="18"/>
+    <col min="9217" max="9217" width="11.33203125" style="18" customWidth="1"/>
+    <col min="9218" max="9218" width="83.33203125" style="18" customWidth="1"/>
     <col min="9219" max="9219" width="20.1328125" style="18" customWidth="1"/>
-    <col min="9220" max="9225" width="18.86328125" style="18"/>
-    <col min="9226" max="9226" width="18.86328125" style="18" customWidth="1"/>
-    <col min="9227" max="9227" width="12.3984375" style="18" customWidth="1"/>
-    <col min="9228" max="9472" width="18.86328125" style="18"/>
-    <col min="9473" max="9473" width="11.265625" style="18" customWidth="1"/>
-    <col min="9474" max="9474" width="83.265625" style="18" customWidth="1"/>
+    <col min="9220" max="9225" width="18.796875" style="18"/>
+    <col min="9226" max="9226" width="18.796875" style="18" customWidth="1"/>
+    <col min="9227" max="9227" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9228" max="9472" width="18.796875" style="18"/>
+    <col min="9473" max="9473" width="11.33203125" style="18" customWidth="1"/>
+    <col min="9474" max="9474" width="83.33203125" style="18" customWidth="1"/>
     <col min="9475" max="9475" width="20.1328125" style="18" customWidth="1"/>
-    <col min="9476" max="9481" width="18.86328125" style="18"/>
-    <col min="9482" max="9482" width="18.86328125" style="18" customWidth="1"/>
-    <col min="9483" max="9483" width="12.3984375" style="18" customWidth="1"/>
-    <col min="9484" max="9728" width="18.86328125" style="18"/>
-    <col min="9729" max="9729" width="11.265625" style="18" customWidth="1"/>
-    <col min="9730" max="9730" width="83.265625" style="18" customWidth="1"/>
+    <col min="9476" max="9481" width="18.796875" style="18"/>
+    <col min="9482" max="9482" width="18.796875" style="18" customWidth="1"/>
+    <col min="9483" max="9483" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9484" max="9728" width="18.796875" style="18"/>
+    <col min="9729" max="9729" width="11.33203125" style="18" customWidth="1"/>
+    <col min="9730" max="9730" width="83.33203125" style="18" customWidth="1"/>
     <col min="9731" max="9731" width="20.1328125" style="18" customWidth="1"/>
-    <col min="9732" max="9737" width="18.86328125" style="18"/>
-    <col min="9738" max="9738" width="18.86328125" style="18" customWidth="1"/>
-    <col min="9739" max="9739" width="12.3984375" style="18" customWidth="1"/>
-    <col min="9740" max="9984" width="18.86328125" style="18"/>
-    <col min="9985" max="9985" width="11.265625" style="18" customWidth="1"/>
-    <col min="9986" max="9986" width="83.265625" style="18" customWidth="1"/>
+    <col min="9732" max="9737" width="18.796875" style="18"/>
+    <col min="9738" max="9738" width="18.796875" style="18" customWidth="1"/>
+    <col min="9739" max="9739" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9740" max="9984" width="18.796875" style="18"/>
+    <col min="9985" max="9985" width="11.33203125" style="18" customWidth="1"/>
+    <col min="9986" max="9986" width="83.33203125" style="18" customWidth="1"/>
     <col min="9987" max="9987" width="20.1328125" style="18" customWidth="1"/>
-    <col min="9988" max="9993" width="18.86328125" style="18"/>
-    <col min="9994" max="9994" width="18.86328125" style="18" customWidth="1"/>
-    <col min="9995" max="9995" width="12.3984375" style="18" customWidth="1"/>
-    <col min="9996" max="10240" width="18.86328125" style="18"/>
-    <col min="10241" max="10241" width="11.265625" style="18" customWidth="1"/>
-    <col min="10242" max="10242" width="83.265625" style="18" customWidth="1"/>
+    <col min="9988" max="9993" width="18.796875" style="18"/>
+    <col min="9994" max="9994" width="18.796875" style="18" customWidth="1"/>
+    <col min="9995" max="9995" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9996" max="10240" width="18.796875" style="18"/>
+    <col min="10241" max="10241" width="11.33203125" style="18" customWidth="1"/>
+    <col min="10242" max="10242" width="83.33203125" style="18" customWidth="1"/>
     <col min="10243" max="10243" width="20.1328125" style="18" customWidth="1"/>
-    <col min="10244" max="10249" width="18.86328125" style="18"/>
-    <col min="10250" max="10250" width="18.86328125" style="18" customWidth="1"/>
-    <col min="10251" max="10251" width="12.3984375" style="18" customWidth="1"/>
-    <col min="10252" max="10496" width="18.86328125" style="18"/>
-    <col min="10497" max="10497" width="11.265625" style="18" customWidth="1"/>
-    <col min="10498" max="10498" width="83.265625" style="18" customWidth="1"/>
+    <col min="10244" max="10249" width="18.796875" style="18"/>
+    <col min="10250" max="10250" width="18.796875" style="18" customWidth="1"/>
+    <col min="10251" max="10251" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10252" max="10496" width="18.796875" style="18"/>
+    <col min="10497" max="10497" width="11.33203125" style="18" customWidth="1"/>
+    <col min="10498" max="10498" width="83.33203125" style="18" customWidth="1"/>
     <col min="10499" max="10499" width="20.1328125" style="18" customWidth="1"/>
-    <col min="10500" max="10505" width="18.86328125" style="18"/>
-    <col min="10506" max="10506" width="18.86328125" style="18" customWidth="1"/>
-    <col min="10507" max="10507" width="12.3984375" style="18" customWidth="1"/>
-    <col min="10508" max="10752" width="18.86328125" style="18"/>
-    <col min="10753" max="10753" width="11.265625" style="18" customWidth="1"/>
-    <col min="10754" max="10754" width="83.265625" style="18" customWidth="1"/>
+    <col min="10500" max="10505" width="18.796875" style="18"/>
+    <col min="10506" max="10506" width="18.796875" style="18" customWidth="1"/>
+    <col min="10507" max="10507" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10508" max="10752" width="18.796875" style="18"/>
+    <col min="10753" max="10753" width="11.33203125" style="18" customWidth="1"/>
+    <col min="10754" max="10754" width="83.33203125" style="18" customWidth="1"/>
     <col min="10755" max="10755" width="20.1328125" style="18" customWidth="1"/>
-    <col min="10756" max="10761" width="18.86328125" style="18"/>
-    <col min="10762" max="10762" width="18.86328125" style="18" customWidth="1"/>
-    <col min="10763" max="10763" width="12.3984375" style="18" customWidth="1"/>
-    <col min="10764" max="11008" width="18.86328125" style="18"/>
-    <col min="11009" max="11009" width="11.265625" style="18" customWidth="1"/>
-    <col min="11010" max="11010" width="83.265625" style="18" customWidth="1"/>
+    <col min="10756" max="10761" width="18.796875" style="18"/>
+    <col min="10762" max="10762" width="18.796875" style="18" customWidth="1"/>
+    <col min="10763" max="10763" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10764" max="11008" width="18.796875" style="18"/>
+    <col min="11009" max="11009" width="11.33203125" style="18" customWidth="1"/>
+    <col min="11010" max="11010" width="83.33203125" style="18" customWidth="1"/>
     <col min="11011" max="11011" width="20.1328125" style="18" customWidth="1"/>
-    <col min="11012" max="11017" width="18.86328125" style="18"/>
-    <col min="11018" max="11018" width="18.86328125" style="18" customWidth="1"/>
-    <col min="11019" max="11019" width="12.3984375" style="18" customWidth="1"/>
-    <col min="11020" max="11264" width="18.86328125" style="18"/>
-    <col min="11265" max="11265" width="11.265625" style="18" customWidth="1"/>
-    <col min="11266" max="11266" width="83.265625" style="18" customWidth="1"/>
+    <col min="11012" max="11017" width="18.796875" style="18"/>
+    <col min="11018" max="11018" width="18.796875" style="18" customWidth="1"/>
+    <col min="11019" max="11019" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11020" max="11264" width="18.796875" style="18"/>
+    <col min="11265" max="11265" width="11.33203125" style="18" customWidth="1"/>
+    <col min="11266" max="11266" width="83.33203125" style="18" customWidth="1"/>
     <col min="11267" max="11267" width="20.1328125" style="18" customWidth="1"/>
-    <col min="11268" max="11273" width="18.86328125" style="18"/>
-    <col min="11274" max="11274" width="18.86328125" style="18" customWidth="1"/>
-    <col min="11275" max="11275" width="12.3984375" style="18" customWidth="1"/>
-    <col min="11276" max="11520" width="18.86328125" style="18"/>
-    <col min="11521" max="11521" width="11.265625" style="18" customWidth="1"/>
-    <col min="11522" max="11522" width="83.265625" style="18" customWidth="1"/>
+    <col min="11268" max="11273" width="18.796875" style="18"/>
+    <col min="11274" max="11274" width="18.796875" style="18" customWidth="1"/>
+    <col min="11275" max="11275" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11276" max="11520" width="18.796875" style="18"/>
+    <col min="11521" max="11521" width="11.33203125" style="18" customWidth="1"/>
+    <col min="11522" max="11522" width="83.33203125" style="18" customWidth="1"/>
     <col min="11523" max="11523" width="20.1328125" style="18" customWidth="1"/>
-    <col min="11524" max="11529" width="18.86328125" style="18"/>
-    <col min="11530" max="11530" width="18.86328125" style="18" customWidth="1"/>
-    <col min="11531" max="11531" width="12.3984375" style="18" customWidth="1"/>
-    <col min="11532" max="11776" width="18.86328125" style="18"/>
-    <col min="11777" max="11777" width="11.265625" style="18" customWidth="1"/>
-    <col min="11778" max="11778" width="83.265625" style="18" customWidth="1"/>
+    <col min="11524" max="11529" width="18.796875" style="18"/>
+    <col min="11530" max="11530" width="18.796875" style="18" customWidth="1"/>
+    <col min="11531" max="11531" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11532" max="11776" width="18.796875" style="18"/>
+    <col min="11777" max="11777" width="11.33203125" style="18" customWidth="1"/>
+    <col min="11778" max="11778" width="83.33203125" style="18" customWidth="1"/>
     <col min="11779" max="11779" width="20.1328125" style="18" customWidth="1"/>
-    <col min="11780" max="11785" width="18.86328125" style="18"/>
-    <col min="11786" max="11786" width="18.86328125" style="18" customWidth="1"/>
-    <col min="11787" max="11787" width="12.3984375" style="18" customWidth="1"/>
-    <col min="11788" max="12032" width="18.86328125" style="18"/>
-    <col min="12033" max="12033" width="11.265625" style="18" customWidth="1"/>
-    <col min="12034" max="12034" width="83.265625" style="18" customWidth="1"/>
+    <col min="11780" max="11785" width="18.796875" style="18"/>
+    <col min="11786" max="11786" width="18.796875" style="18" customWidth="1"/>
+    <col min="11787" max="11787" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11788" max="12032" width="18.796875" style="18"/>
+    <col min="12033" max="12033" width="11.33203125" style="18" customWidth="1"/>
+    <col min="12034" max="12034" width="83.33203125" style="18" customWidth="1"/>
     <col min="12035" max="12035" width="20.1328125" style="18" customWidth="1"/>
-    <col min="12036" max="12041" width="18.86328125" style="18"/>
-    <col min="12042" max="12042" width="18.86328125" style="18" customWidth="1"/>
-    <col min="12043" max="12043" width="12.3984375" style="18" customWidth="1"/>
-    <col min="12044" max="12288" width="18.86328125" style="18"/>
-    <col min="12289" max="12289" width="11.265625" style="18" customWidth="1"/>
-    <col min="12290" max="12290" width="83.265625" style="18" customWidth="1"/>
+    <col min="12036" max="12041" width="18.796875" style="18"/>
+    <col min="12042" max="12042" width="18.796875" style="18" customWidth="1"/>
+    <col min="12043" max="12043" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12044" max="12288" width="18.796875" style="18"/>
+    <col min="12289" max="12289" width="11.33203125" style="18" customWidth="1"/>
+    <col min="12290" max="12290" width="83.33203125" style="18" customWidth="1"/>
     <col min="12291" max="12291" width="20.1328125" style="18" customWidth="1"/>
-    <col min="12292" max="12297" width="18.86328125" style="18"/>
-    <col min="12298" max="12298" width="18.86328125" style="18" customWidth="1"/>
-    <col min="12299" max="12299" width="12.3984375" style="18" customWidth="1"/>
-    <col min="12300" max="12544" width="18.86328125" style="18"/>
-    <col min="12545" max="12545" width="11.265625" style="18" customWidth="1"/>
-    <col min="12546" max="12546" width="83.265625" style="18" customWidth="1"/>
+    <col min="12292" max="12297" width="18.796875" style="18"/>
+    <col min="12298" max="12298" width="18.796875" style="18" customWidth="1"/>
+    <col min="12299" max="12299" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12300" max="12544" width="18.796875" style="18"/>
+    <col min="12545" max="12545" width="11.33203125" style="18" customWidth="1"/>
+    <col min="12546" max="12546" width="83.33203125" style="18" customWidth="1"/>
     <col min="12547" max="12547" width="20.1328125" style="18" customWidth="1"/>
-    <col min="12548" max="12553" width="18.86328125" style="18"/>
-    <col min="12554" max="12554" width="18.86328125" style="18" customWidth="1"/>
-    <col min="12555" max="12555" width="12.3984375" style="18" customWidth="1"/>
-    <col min="12556" max="12800" width="18.86328125" style="18"/>
-    <col min="12801" max="12801" width="11.265625" style="18" customWidth="1"/>
-    <col min="12802" max="12802" width="83.265625" style="18" customWidth="1"/>
+    <col min="12548" max="12553" width="18.796875" style="18"/>
+    <col min="12554" max="12554" width="18.796875" style="18" customWidth="1"/>
+    <col min="12555" max="12555" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12556" max="12800" width="18.796875" style="18"/>
+    <col min="12801" max="12801" width="11.33203125" style="18" customWidth="1"/>
+    <col min="12802" max="12802" width="83.33203125" style="18" customWidth="1"/>
     <col min="12803" max="12803" width="20.1328125" style="18" customWidth="1"/>
-    <col min="12804" max="12809" width="18.86328125" style="18"/>
-    <col min="12810" max="12810" width="18.86328125" style="18" customWidth="1"/>
-    <col min="12811" max="12811" width="12.3984375" style="18" customWidth="1"/>
-    <col min="12812" max="13056" width="18.86328125" style="18"/>
-    <col min="13057" max="13057" width="11.265625" style="18" customWidth="1"/>
-    <col min="13058" max="13058" width="83.265625" style="18" customWidth="1"/>
+    <col min="12804" max="12809" width="18.796875" style="18"/>
+    <col min="12810" max="12810" width="18.796875" style="18" customWidth="1"/>
+    <col min="12811" max="12811" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12812" max="13056" width="18.796875" style="18"/>
+    <col min="13057" max="13057" width="11.33203125" style="18" customWidth="1"/>
+    <col min="13058" max="13058" width="83.33203125" style="18" customWidth="1"/>
     <col min="13059" max="13059" width="20.1328125" style="18" customWidth="1"/>
-    <col min="13060" max="13065" width="18.86328125" style="18"/>
-    <col min="13066" max="13066" width="18.86328125" style="18" customWidth="1"/>
-    <col min="13067" max="13067" width="12.3984375" style="18" customWidth="1"/>
-    <col min="13068" max="13312" width="18.86328125" style="18"/>
-    <col min="13313" max="13313" width="11.265625" style="18" customWidth="1"/>
-    <col min="13314" max="13314" width="83.265625" style="18" customWidth="1"/>
+    <col min="13060" max="13065" width="18.796875" style="18"/>
+    <col min="13066" max="13066" width="18.796875" style="18" customWidth="1"/>
+    <col min="13067" max="13067" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13068" max="13312" width="18.796875" style="18"/>
+    <col min="13313" max="13313" width="11.33203125" style="18" customWidth="1"/>
+    <col min="13314" max="13314" width="83.33203125" style="18" customWidth="1"/>
     <col min="13315" max="13315" width="20.1328125" style="18" customWidth="1"/>
-    <col min="13316" max="13321" width="18.86328125" style="18"/>
-    <col min="13322" max="13322" width="18.86328125" style="18" customWidth="1"/>
-    <col min="13323" max="13323" width="12.3984375" style="18" customWidth="1"/>
-    <col min="13324" max="13568" width="18.86328125" style="18"/>
-    <col min="13569" max="13569" width="11.265625" style="18" customWidth="1"/>
-    <col min="13570" max="13570" width="83.265625" style="18" customWidth="1"/>
+    <col min="13316" max="13321" width="18.796875" style="18"/>
+    <col min="13322" max="13322" width="18.796875" style="18" customWidth="1"/>
+    <col min="13323" max="13323" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13324" max="13568" width="18.796875" style="18"/>
+    <col min="13569" max="13569" width="11.33203125" style="18" customWidth="1"/>
+    <col min="13570" max="13570" width="83.33203125" style="18" customWidth="1"/>
     <col min="13571" max="13571" width="20.1328125" style="18" customWidth="1"/>
-    <col min="13572" max="13577" width="18.86328125" style="18"/>
-    <col min="13578" max="13578" width="18.86328125" style="18" customWidth="1"/>
-    <col min="13579" max="13579" width="12.3984375" style="18" customWidth="1"/>
-    <col min="13580" max="13824" width="18.86328125" style="18"/>
-    <col min="13825" max="13825" width="11.265625" style="18" customWidth="1"/>
-    <col min="13826" max="13826" width="83.265625" style="18" customWidth="1"/>
+    <col min="13572" max="13577" width="18.796875" style="18"/>
+    <col min="13578" max="13578" width="18.796875" style="18" customWidth="1"/>
+    <col min="13579" max="13579" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13580" max="13824" width="18.796875" style="18"/>
+    <col min="13825" max="13825" width="11.33203125" style="18" customWidth="1"/>
+    <col min="13826" max="13826" width="83.33203125" style="18" customWidth="1"/>
     <col min="13827" max="13827" width="20.1328125" style="18" customWidth="1"/>
-    <col min="13828" max="13833" width="18.86328125" style="18"/>
-    <col min="13834" max="13834" width="18.86328125" style="18" customWidth="1"/>
-    <col min="13835" max="13835" width="12.3984375" style="18" customWidth="1"/>
-    <col min="13836" max="14080" width="18.86328125" style="18"/>
-    <col min="14081" max="14081" width="11.265625" style="18" customWidth="1"/>
-    <col min="14082" max="14082" width="83.265625" style="18" customWidth="1"/>
+    <col min="13828" max="13833" width="18.796875" style="18"/>
+    <col min="13834" max="13834" width="18.796875" style="18" customWidth="1"/>
+    <col min="13835" max="13835" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13836" max="14080" width="18.796875" style="18"/>
+    <col min="14081" max="14081" width="11.33203125" style="18" customWidth="1"/>
+    <col min="14082" max="14082" width="83.33203125" style="18" customWidth="1"/>
     <col min="14083" max="14083" width="20.1328125" style="18" customWidth="1"/>
-    <col min="14084" max="14089" width="18.86328125" style="18"/>
-    <col min="14090" max="14090" width="18.86328125" style="18" customWidth="1"/>
-    <col min="14091" max="14091" width="12.3984375" style="18" customWidth="1"/>
-    <col min="14092" max="14336" width="18.86328125" style="18"/>
-    <col min="14337" max="14337" width="11.265625" style="18" customWidth="1"/>
-    <col min="14338" max="14338" width="83.265625" style="18" customWidth="1"/>
+    <col min="14084" max="14089" width="18.796875" style="18"/>
+    <col min="14090" max="14090" width="18.796875" style="18" customWidth="1"/>
+    <col min="14091" max="14091" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14092" max="14336" width="18.796875" style="18"/>
+    <col min="14337" max="14337" width="11.33203125" style="18" customWidth="1"/>
+    <col min="14338" max="14338" width="83.33203125" style="18" customWidth="1"/>
     <col min="14339" max="14339" width="20.1328125" style="18" customWidth="1"/>
-    <col min="14340" max="14345" width="18.86328125" style="18"/>
-    <col min="14346" max="14346" width="18.86328125" style="18" customWidth="1"/>
-    <col min="14347" max="14347" width="12.3984375" style="18" customWidth="1"/>
-    <col min="14348" max="14592" width="18.86328125" style="18"/>
-    <col min="14593" max="14593" width="11.265625" style="18" customWidth="1"/>
-    <col min="14594" max="14594" width="83.265625" style="18" customWidth="1"/>
+    <col min="14340" max="14345" width="18.796875" style="18"/>
+    <col min="14346" max="14346" width="18.796875" style="18" customWidth="1"/>
+    <col min="14347" max="14347" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14348" max="14592" width="18.796875" style="18"/>
+    <col min="14593" max="14593" width="11.33203125" style="18" customWidth="1"/>
+    <col min="14594" max="14594" width="83.33203125" style="18" customWidth="1"/>
     <col min="14595" max="14595" width="20.1328125" style="18" customWidth="1"/>
-    <col min="14596" max="14601" width="18.86328125" style="18"/>
-    <col min="14602" max="14602" width="18.86328125" style="18" customWidth="1"/>
-    <col min="14603" max="14603" width="12.3984375" style="18" customWidth="1"/>
-    <col min="14604" max="14848" width="18.86328125" style="18"/>
-    <col min="14849" max="14849" width="11.265625" style="18" customWidth="1"/>
-    <col min="14850" max="14850" width="83.265625" style="18" customWidth="1"/>
+    <col min="14596" max="14601" width="18.796875" style="18"/>
+    <col min="14602" max="14602" width="18.796875" style="18" customWidth="1"/>
+    <col min="14603" max="14603" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14604" max="14848" width="18.796875" style="18"/>
+    <col min="14849" max="14849" width="11.33203125" style="18" customWidth="1"/>
+    <col min="14850" max="14850" width="83.33203125" style="18" customWidth="1"/>
     <col min="14851" max="14851" width="20.1328125" style="18" customWidth="1"/>
-    <col min="14852" max="14857" width="18.86328125" style="18"/>
-    <col min="14858" max="14858" width="18.86328125" style="18" customWidth="1"/>
-    <col min="14859" max="14859" width="12.3984375" style="18" customWidth="1"/>
-    <col min="14860" max="15104" width="18.86328125" style="18"/>
-    <col min="15105" max="15105" width="11.265625" style="18" customWidth="1"/>
-    <col min="15106" max="15106" width="83.265625" style="18" customWidth="1"/>
+    <col min="14852" max="14857" width="18.796875" style="18"/>
+    <col min="14858" max="14858" width="18.796875" style="18" customWidth="1"/>
+    <col min="14859" max="14859" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14860" max="15104" width="18.796875" style="18"/>
+    <col min="15105" max="15105" width="11.33203125" style="18" customWidth="1"/>
+    <col min="15106" max="15106" width="83.33203125" style="18" customWidth="1"/>
     <col min="15107" max="15107" width="20.1328125" style="18" customWidth="1"/>
-    <col min="15108" max="15113" width="18.86328125" style="18"/>
-    <col min="15114" max="15114" width="18.86328125" style="18" customWidth="1"/>
-    <col min="15115" max="15115" width="12.3984375" style="18" customWidth="1"/>
-    <col min="15116" max="15360" width="18.86328125" style="18"/>
-    <col min="15361" max="15361" width="11.265625" style="18" customWidth="1"/>
-    <col min="15362" max="15362" width="83.265625" style="18" customWidth="1"/>
+    <col min="15108" max="15113" width="18.796875" style="18"/>
+    <col min="15114" max="15114" width="18.796875" style="18" customWidth="1"/>
+    <col min="15115" max="15115" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15116" max="15360" width="18.796875" style="18"/>
+    <col min="15361" max="15361" width="11.33203125" style="18" customWidth="1"/>
+    <col min="15362" max="15362" width="83.33203125" style="18" customWidth="1"/>
     <col min="15363" max="15363" width="20.1328125" style="18" customWidth="1"/>
-    <col min="15364" max="15369" width="18.86328125" style="18"/>
-    <col min="15370" max="15370" width="18.86328125" style="18" customWidth="1"/>
-    <col min="15371" max="15371" width="12.3984375" style="18" customWidth="1"/>
-    <col min="15372" max="15616" width="18.86328125" style="18"/>
-    <col min="15617" max="15617" width="11.265625" style="18" customWidth="1"/>
-    <col min="15618" max="15618" width="83.265625" style="18" customWidth="1"/>
+    <col min="15364" max="15369" width="18.796875" style="18"/>
+    <col min="15370" max="15370" width="18.796875" style="18" customWidth="1"/>
+    <col min="15371" max="15371" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15372" max="15616" width="18.796875" style="18"/>
+    <col min="15617" max="15617" width="11.33203125" style="18" customWidth="1"/>
+    <col min="15618" max="15618" width="83.33203125" style="18" customWidth="1"/>
     <col min="15619" max="15619" width="20.1328125" style="18" customWidth="1"/>
-    <col min="15620" max="15625" width="18.86328125" style="18"/>
-    <col min="15626" max="15626" width="18.86328125" style="18" customWidth="1"/>
-    <col min="15627" max="15627" width="12.3984375" style="18" customWidth="1"/>
-    <col min="15628" max="15872" width="18.86328125" style="18"/>
-    <col min="15873" max="15873" width="11.265625" style="18" customWidth="1"/>
-    <col min="15874" max="15874" width="83.265625" style="18" customWidth="1"/>
+    <col min="15620" max="15625" width="18.796875" style="18"/>
+    <col min="15626" max="15626" width="18.796875" style="18" customWidth="1"/>
+    <col min="15627" max="15627" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15628" max="15872" width="18.796875" style="18"/>
+    <col min="15873" max="15873" width="11.33203125" style="18" customWidth="1"/>
+    <col min="15874" max="15874" width="83.33203125" style="18" customWidth="1"/>
     <col min="15875" max="15875" width="20.1328125" style="18" customWidth="1"/>
-    <col min="15876" max="15881" width="18.86328125" style="18"/>
-    <col min="15882" max="15882" width="18.86328125" style="18" customWidth="1"/>
-    <col min="15883" max="15883" width="12.3984375" style="18" customWidth="1"/>
-    <col min="15884" max="16128" width="18.86328125" style="18"/>
-    <col min="16129" max="16129" width="11.265625" style="18" customWidth="1"/>
-    <col min="16130" max="16130" width="83.265625" style="18" customWidth="1"/>
+    <col min="15876" max="15881" width="18.796875" style="18"/>
+    <col min="15882" max="15882" width="18.796875" style="18" customWidth="1"/>
+    <col min="15883" max="15883" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15884" max="16128" width="18.796875" style="18"/>
+    <col min="16129" max="16129" width="11.33203125" style="18" customWidth="1"/>
+    <col min="16130" max="16130" width="83.33203125" style="18" customWidth="1"/>
     <col min="16131" max="16131" width="20.1328125" style="18" customWidth="1"/>
-    <col min="16132" max="16137" width="18.86328125" style="18"/>
-    <col min="16138" max="16138" width="18.86328125" style="18" customWidth="1"/>
-    <col min="16139" max="16139" width="12.3984375" style="18" customWidth="1"/>
-    <col min="16140" max="16384" width="18.86328125" style="18"/>
+    <col min="16132" max="16137" width="18.796875" style="18"/>
+    <col min="16138" max="16138" width="18.796875" style="18" customWidth="1"/>
+    <col min="16139" max="16139" width="12.33203125" style="18" customWidth="1"/>
+    <col min="16140" max="16384" width="18.796875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -52655,15 +52986,969 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4139DC-722A-0E45-9DF3-72404614CFF1}">
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" customWidth="1"/>
-    <col min="2" max="2" width="77.86328125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="45"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="45"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="47"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="49"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="50"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="59">
+        <v>7726</v>
+      </c>
+      <c r="C17" s="59">
+        <v>1136</v>
+      </c>
+      <c r="D17" s="59">
+        <v>13</v>
+      </c>
+      <c r="E17" s="59">
+        <v>45</v>
+      </c>
+      <c r="F17" s="59">
+        <v>2988</v>
+      </c>
+      <c r="G17" s="59">
+        <v>27</v>
+      </c>
+      <c r="H17" s="59">
+        <v>277</v>
+      </c>
+      <c r="I17" s="59">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="59">
+        <v>15</v>
+      </c>
+      <c r="D18" s="59">
+        <v>10</v>
+      </c>
+      <c r="E18" s="59">
+        <v>7</v>
+      </c>
+      <c r="F18" s="59">
+        <v>1278</v>
+      </c>
+      <c r="G18" s="59">
+        <v>4</v>
+      </c>
+      <c r="H18" s="59">
+        <v>161</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="59">
+        <v>15</v>
+      </c>
+      <c r="D19" s="59">
+        <v>3</v>
+      </c>
+      <c r="E19" s="59">
+        <v>1</v>
+      </c>
+      <c r="F19" s="59">
+        <v>319</v>
+      </c>
+      <c r="G19" s="59">
+        <v>3</v>
+      </c>
+      <c r="H19" s="59">
+        <v>15</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="60"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="59">
+        <v>7</v>
+      </c>
+      <c r="E20" s="59">
+        <v>6</v>
+      </c>
+      <c r="F20" s="59">
+        <v>959</v>
+      </c>
+      <c r="G20" s="59">
+        <v>1</v>
+      </c>
+      <c r="H20" s="59">
+        <v>146</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="60"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="59">
+        <v>902</v>
+      </c>
+      <c r="D21" s="59">
+        <v>3</v>
+      </c>
+      <c r="E21" s="59">
+        <v>9</v>
+      </c>
+      <c r="F21" s="59">
+        <v>1494</v>
+      </c>
+      <c r="G21" s="59">
+        <v>11</v>
+      </c>
+      <c r="H21" s="59">
+        <v>115</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="59">
+        <v>150</v>
+      </c>
+      <c r="D22" s="59">
+        <v>3</v>
+      </c>
+      <c r="E22" s="59">
+        <v>2</v>
+      </c>
+      <c r="F22" s="59">
+        <v>1298</v>
+      </c>
+      <c r="G22" s="59">
+        <v>9</v>
+      </c>
+      <c r="H22" s="59">
+        <v>113</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="59">
+        <v>79</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="59">
+        <v>16</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="59">
+        <v>0</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="59">
+        <v>558</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="59">
+        <v>6</v>
+      </c>
+      <c r="F24" s="59">
+        <v>114</v>
+      </c>
+      <c r="G24" s="59">
+        <v>1</v>
+      </c>
+      <c r="H24" s="59">
+        <v>1</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="59">
+        <v>89</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="59">
+        <v>27</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="59">
+        <v>1</v>
+      </c>
+      <c r="F26" s="59">
+        <v>67</v>
+      </c>
+      <c r="G26" s="59">
+        <v>1</v>
+      </c>
+      <c r="H26" s="59">
+        <v>1</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="59">
+        <v>198</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="59">
+        <v>27</v>
+      </c>
+      <c r="F27" s="59">
+        <v>117</v>
+      </c>
+      <c r="G27" s="59">
+        <v>10</v>
+      </c>
+      <c r="H27" s="59">
+        <v>1</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="59">
+        <v>102</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="59">
+        <v>1</v>
+      </c>
+      <c r="F28" s="59">
+        <v>96</v>
+      </c>
+      <c r="G28" s="59">
+        <v>2</v>
+      </c>
+      <c r="H28" s="59">
+        <v>1</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="59">
+        <v>64</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="59">
+        <v>22</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="59">
+        <v>11</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="59">
+        <v>0</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="59">
+        <v>6</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="59">
+        <v>19</v>
+      </c>
+      <c r="F31" s="59">
+        <v>1</v>
+      </c>
+      <c r="G31" s="59">
+        <v>8</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="59">
+        <v>7</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="59">
+        <v>4</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="59">
+        <v>6</v>
+      </c>
+      <c r="F33" s="59">
+        <v>3</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="59">
+        <v>0</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="59">
+        <v>3363</v>
+      </c>
+      <c r="C34" s="59">
+        <v>20</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="59">
+        <v>2</v>
+      </c>
+      <c r="F34" s="59">
+        <v>98</v>
+      </c>
+      <c r="G34" s="59">
+        <v>3</v>
+      </c>
+      <c r="H34" s="59">
+        <v>0</v>
+      </c>
+      <c r="I34" s="59">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+    </row>
+    <row r="39" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+    </row>
+    <row r="40" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+    </row>
+    <row r="41" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+    </row>
+    <row r="42" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+    </row>
+    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="64" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+    </row>
+    <row r="50" spans="1:9" ht="61.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:I48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="77.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -52748,12 +54033,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="34">
         <v>0.2</v>
       </c>
@@ -52761,7 +54046,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="34">
         <v>0.35</v>
       </c>
@@ -52769,7 +54054,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="34">
         <v>0.6</v>
       </c>
@@ -52777,7 +54062,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="34">
         <v>0.8</v>
       </c>
@@ -52785,17 +54070,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="40">
         <f>1-A20</f>
         <v>0.65</v>
@@ -52804,18 +54089,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
         <v>296</v>
       </c>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="37">
         <f>SUM('Table 5.2'!E20:I20,'Table 5.2'!E24:I24,'Table 5.2'!E30:I30)/SUM('Table 5.2'!E20:I20,'Table 5.2'!E23:I23,'Table 5.2'!E29:I29)</f>
         <v>0.92744126578232378</v>
@@ -52823,8 +54108,15 @@
       <c r="B32" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32" s="35">
+        <f>SUM('Table 5.6'!D18:H18,'Table 5.6'!D22:H22,'Table 5.6'!D28:H28)/SUM('Table 5.6'!D18:H18,'Table 5.6'!D21:H21,'Table 5.6'!D27:H27)</f>
+        <v>0.91931013242993531</v>
+      </c>
+      <c r="D32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="37">
         <f>SUM('Table 5.2'!E25:I28,'Table 5.2'!E31:I35)/SUM('Table 5.2'!E20:I20,'Table 5.2'!E23:I23,'Table 5.2'!E29:I29)</f>
         <v>7.1439987214319961E-2</v>
@@ -52832,14 +54124,28 @@
       <c r="B33" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33" s="61">
+        <f>SUM('Table 5.6'!D23:H26,'Table 5.6'!D29:H33)/SUM('Table 5.6'!D18:H18,'Table 5.6'!D21:H21,'Table 5.6'!D27:H27)</f>
+        <v>8.0997844163843549E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="42">
-        <f>A32*A11+A33*A27</f>
+        <f>$A$32*$A$11+$A$33*$A$27</f>
         <v>0.22851035061589922</v>
       </c>
       <c r="B35" t="s">
         <v>300</v>
+      </c>
+      <c r="C35" s="42">
+        <f>$C$32*$A$11+$C$33*$A$27</f>
+        <v>0.23312666151482925</v>
+      </c>
+      <c r="D35" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -52850,21 +54156,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.265625" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -52877,8 +54183,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="41">
-        <f>Calculations!A35</f>
-        <v>0.22851035061589922</v>
+        <f>Calculations!C35</f>
+        <v>0.23312666151482925</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
+++ b/InputData/indst/PIFURfE/Perc Indst Fuel Use Reduction for Elec.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\indst\PIFURfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\indst\PIFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2634F1BA-5AA6-4A80-BB3F-D357D58AF3A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52995" yWindow="570" windowWidth="13515" windowHeight="11805" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="330" windowWidth="27555" windowHeight="13335"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Table 5.2" sheetId="4" r:id="rId2"/>
-    <sheet name="Table 5.6" sheetId="6" r:id="rId3"/>
-    <sheet name="Calculations" sheetId="5" r:id="rId4"/>
-    <sheet name="PIFURfE" sheetId="2" r:id="rId5"/>
+    <sheet name="Calculations" sheetId="5" r:id="rId3"/>
+    <sheet name="PIFURfE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Regression_Int" localSheetId="1" hidden="1">1</definedName>
@@ -25,22 +23,12 @@
     <definedName name="Print_Area_MI">'Table 5.2'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Table 5.2'!$1:$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9008" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8868" uniqueCount="304">
   <si>
     <t>Percentage Industry Fuel Use Reduction for Electricity</t>
   </si>
@@ -964,120 +952,18 @@
   <si>
     <t>fossil powered combustion to electric.</t>
   </si>
-  <si>
-    <t>Released: October 2017</t>
-  </si>
-  <si>
-    <t>Next MECS will be fielded in 2019</t>
-  </si>
-  <si>
-    <t>Table 5.6    End Uses of Fuel Consumption, 2014;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Level: National and Regional Data; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Row: End Uses;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural </t>
-  </si>
-  <si>
-    <t>HGL (excluding</t>
-  </si>
-  <si>
-    <t>Electricity(a)</t>
-  </si>
-  <si>
-    <t>Diesel Fuel(b)</t>
-  </si>
-  <si>
-    <t>Gas(c)</t>
-  </si>
-  <si>
-    <t>natural gasoline)(d)</t>
-  </si>
-  <si>
-    <t>Other(e)</t>
-  </si>
-  <si>
-    <t>South Census Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Facility HVAC (f)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (a) 'Net Electricity' is obtained by summing purchases, transfers in, and generation from noncombustible renewable resources, minus quantities sold and transferred out. It does not include electricity inputs from onsite cogeneration or generation from combustible fuels because that energy has already been included as generating fuel (for example, coal).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (b) 'Distillate Fuel Oil' includes Nos. 1, 2, and 4 fuel oils and Nos. 1, 2, and 4 diesel fuels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (c) 'Natural Gas' includes natural gas obtained from utilities, local distribution companies, and any other supplier(s), such as independent gas producers, gas brokers, marketers, and any marketing subsidiaries of utilities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (d) Hydrocarbon Gas Liquids '(HGL)' include ethane, ethylene, propane, propylene, normal butane, butylene, ethane-propane mixtures, propane-butane mixtures, and isobutane produced at refineries or natural gas processing plants, including plants that fractionate raw Natural Gas Liquids (NGL). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (e) 'Other' includes net steam (the sum of purchases, generation from renewables, and net transfers), and other energy that respondents indicated was used to produce heat and power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    (f) Facility Heating, Ventilation, and Air Conditioning '(Facility HVAC)' excludes steam and hot water.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    W=Withheld to avoid disclosing data for individual establishments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    S=Negative value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Notes: Totals may not equal sum of components because of independent rounding. The estimates presented in this table are for the total consumption of energy  (formerly total inputs of energy) for the production of heat, power, and lectricity generation, regardless of where the energy was produced.  Specifically, the estimates include the quantities of energy that were originally produced offsite and purchased by or transferred to the establishment, plus those that were produced onsite from other energy or input materials not classified as energy, or were extracted from captive (onsite) mines or wells. Allocations to specific end uses are made on the basis of reasonable approximations by respondents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Source: U.S. Energy Information Administration, Office of Energy Consumption and Efficiency Statistics, Form EIA-846, '2014 Manufacturing Energy Consumption Survey.' </t>
-  </si>
-  <si>
-    <t>Share of non-electricity fuels used for boilers, process heat, and HVAC for South Census Region</t>
-  </si>
-  <si>
-    <t>Share of non-electricity fuels used for other purposes for South Census Region</t>
-  </si>
-  <si>
-    <t>Weighted average fuel use reduction for South Census Region</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/consumption/manufacturing/data/2014/#r5</t>
-  </si>
-  <si>
-    <t>Table 5.6</t>
-  </si>
-  <si>
-    <t>Breakdown of Industrial Energy Use by End Use, South Census Region</t>
-  </si>
-  <si>
-    <t>NOTES FOR TX UPDATE:</t>
-  </si>
-  <si>
-    <t>existing methodology.</t>
-  </si>
-  <si>
-    <t>Updated the weighted average by end use values to reflect south census region and followed</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,43 +1037,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1209,7 +1058,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1244,64 +1093,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF0096D7"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1383,73 +1182,12 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="8">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Body: normal cell" xfId="7" xr:uid="{DAFB185E-969B-9E4F-B869-FED210734FC4}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="4" xr:uid="{095025B7-5DB0-B44E-8F4D-FD721907713E}"/>
-    <cellStyle name="Footnotes: top row" xfId="8" xr:uid="{14125562-447F-CF46-9B14-641D5B6D2C62}"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{879C3DE4-1549-6D46-8054-CA799BAA9C26}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Table title" xfId="5" xr:uid="{85671C5F-15CF-A34C-BA61-F5E722AE38E4}"/>
+    <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1540,23 +1278,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1592,23 +1313,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1784,101 +1488,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="59.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>262</v>
       </c>
-      <c r="D4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="33">
         <v>2013</v>
       </c>
-      <c r="D5" s="33">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>263</v>
       </c>
-      <c r="D6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="63" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>265</v>
       </c>
-      <c r="D8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="32" t="s">
         <v>283</v>
       </c>
@@ -1931,490 +1616,474 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>336</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" location="r5" xr:uid="{F38AAF50-3C85-0848-A3A0-84B1E713C231}"/>
-    <hyperlink ref="D7" r:id="rId2" location="r5" display="https://www.eia.gov/consumption/manufacturing/data/2014/ - r5" xr:uid="{10556B49-0EB6-784F-B95A-D3CECE8B4419}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr syncVertical="1" syncRef="C7" transitionEvaluation="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr syncVertical="1" syncRef="C14" transitionEvaluation="1"/>
   <dimension ref="A1:U1920"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.796875" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="18.86328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="83.33203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="11.265625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="83.265625" style="18" customWidth="1"/>
     <col min="3" max="3" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4" max="9" width="18.796875" style="18"/>
-    <col min="10" max="10" width="18.796875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="18" customWidth="1"/>
-    <col min="12" max="256" width="18.796875" style="18"/>
-    <col min="257" max="257" width="11.33203125" style="18" customWidth="1"/>
-    <col min="258" max="258" width="83.33203125" style="18" customWidth="1"/>
+    <col min="4" max="9" width="18.86328125" style="18"/>
+    <col min="10" max="10" width="18.86328125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="18" customWidth="1"/>
+    <col min="12" max="256" width="18.86328125" style="18"/>
+    <col min="257" max="257" width="11.265625" style="18" customWidth="1"/>
+    <col min="258" max="258" width="83.265625" style="18" customWidth="1"/>
     <col min="259" max="259" width="20.1328125" style="18" customWidth="1"/>
-    <col min="260" max="265" width="18.796875" style="18"/>
-    <col min="266" max="266" width="18.796875" style="18" customWidth="1"/>
-    <col min="267" max="267" width="12.33203125" style="18" customWidth="1"/>
-    <col min="268" max="512" width="18.796875" style="18"/>
-    <col min="513" max="513" width="11.33203125" style="18" customWidth="1"/>
-    <col min="514" max="514" width="83.33203125" style="18" customWidth="1"/>
+    <col min="260" max="265" width="18.86328125" style="18"/>
+    <col min="266" max="266" width="18.86328125" style="18" customWidth="1"/>
+    <col min="267" max="267" width="12.3984375" style="18" customWidth="1"/>
+    <col min="268" max="512" width="18.86328125" style="18"/>
+    <col min="513" max="513" width="11.265625" style="18" customWidth="1"/>
+    <col min="514" max="514" width="83.265625" style="18" customWidth="1"/>
     <col min="515" max="515" width="20.1328125" style="18" customWidth="1"/>
-    <col min="516" max="521" width="18.796875" style="18"/>
-    <col min="522" max="522" width="18.796875" style="18" customWidth="1"/>
-    <col min="523" max="523" width="12.33203125" style="18" customWidth="1"/>
-    <col min="524" max="768" width="18.796875" style="18"/>
-    <col min="769" max="769" width="11.33203125" style="18" customWidth="1"/>
-    <col min="770" max="770" width="83.33203125" style="18" customWidth="1"/>
+    <col min="516" max="521" width="18.86328125" style="18"/>
+    <col min="522" max="522" width="18.86328125" style="18" customWidth="1"/>
+    <col min="523" max="523" width="12.3984375" style="18" customWidth="1"/>
+    <col min="524" max="768" width="18.86328125" style="18"/>
+    <col min="769" max="769" width="11.265625" style="18" customWidth="1"/>
+    <col min="770" max="770" width="83.265625" style="18" customWidth="1"/>
     <col min="771" max="771" width="20.1328125" style="18" customWidth="1"/>
-    <col min="772" max="777" width="18.796875" style="18"/>
-    <col min="778" max="778" width="18.796875" style="18" customWidth="1"/>
-    <col min="779" max="779" width="12.33203125" style="18" customWidth="1"/>
-    <col min="780" max="1024" width="18.796875" style="18"/>
-    <col min="1025" max="1025" width="11.33203125" style="18" customWidth="1"/>
-    <col min="1026" max="1026" width="83.33203125" style="18" customWidth="1"/>
+    <col min="772" max="777" width="18.86328125" style="18"/>
+    <col min="778" max="778" width="18.86328125" style="18" customWidth="1"/>
+    <col min="779" max="779" width="12.3984375" style="18" customWidth="1"/>
+    <col min="780" max="1024" width="18.86328125" style="18"/>
+    <col min="1025" max="1025" width="11.265625" style="18" customWidth="1"/>
+    <col min="1026" max="1026" width="83.265625" style="18" customWidth="1"/>
     <col min="1027" max="1027" width="20.1328125" style="18" customWidth="1"/>
-    <col min="1028" max="1033" width="18.796875" style="18"/>
-    <col min="1034" max="1034" width="18.796875" style="18" customWidth="1"/>
-    <col min="1035" max="1035" width="12.33203125" style="18" customWidth="1"/>
-    <col min="1036" max="1280" width="18.796875" style="18"/>
-    <col min="1281" max="1281" width="11.33203125" style="18" customWidth="1"/>
-    <col min="1282" max="1282" width="83.33203125" style="18" customWidth="1"/>
+    <col min="1028" max="1033" width="18.86328125" style="18"/>
+    <col min="1034" max="1034" width="18.86328125" style="18" customWidth="1"/>
+    <col min="1035" max="1035" width="12.3984375" style="18" customWidth="1"/>
+    <col min="1036" max="1280" width="18.86328125" style="18"/>
+    <col min="1281" max="1281" width="11.265625" style="18" customWidth="1"/>
+    <col min="1282" max="1282" width="83.265625" style="18" customWidth="1"/>
     <col min="1283" max="1283" width="20.1328125" style="18" customWidth="1"/>
-    <col min="1284" max="1289" width="18.796875" style="18"/>
-    <col min="1290" max="1290" width="18.796875" style="18" customWidth="1"/>
-    <col min="1291" max="1291" width="12.33203125" style="18" customWidth="1"/>
-    <col min="1292" max="1536" width="18.796875" style="18"/>
-    <col min="1537" max="1537" width="11.33203125" style="18" customWidth="1"/>
-    <col min="1538" max="1538" width="83.33203125" style="18" customWidth="1"/>
+    <col min="1284" max="1289" width="18.86328125" style="18"/>
+    <col min="1290" max="1290" width="18.86328125" style="18" customWidth="1"/>
+    <col min="1291" max="1291" width="12.3984375" style="18" customWidth="1"/>
+    <col min="1292" max="1536" width="18.86328125" style="18"/>
+    <col min="1537" max="1537" width="11.265625" style="18" customWidth="1"/>
+    <col min="1538" max="1538" width="83.265625" style="18" customWidth="1"/>
     <col min="1539" max="1539" width="20.1328125" style="18" customWidth="1"/>
-    <col min="1540" max="1545" width="18.796875" style="18"/>
-    <col min="1546" max="1546" width="18.796875" style="18" customWidth="1"/>
-    <col min="1547" max="1547" width="12.33203125" style="18" customWidth="1"/>
-    <col min="1548" max="1792" width="18.796875" style="18"/>
-    <col min="1793" max="1793" width="11.33203125" style="18" customWidth="1"/>
-    <col min="1794" max="1794" width="83.33203125" style="18" customWidth="1"/>
+    <col min="1540" max="1545" width="18.86328125" style="18"/>
+    <col min="1546" max="1546" width="18.86328125" style="18" customWidth="1"/>
+    <col min="1547" max="1547" width="12.3984375" style="18" customWidth="1"/>
+    <col min="1548" max="1792" width="18.86328125" style="18"/>
+    <col min="1793" max="1793" width="11.265625" style="18" customWidth="1"/>
+    <col min="1794" max="1794" width="83.265625" style="18" customWidth="1"/>
     <col min="1795" max="1795" width="20.1328125" style="18" customWidth="1"/>
-    <col min="1796" max="1801" width="18.796875" style="18"/>
-    <col min="1802" max="1802" width="18.796875" style="18" customWidth="1"/>
-    <col min="1803" max="1803" width="12.33203125" style="18" customWidth="1"/>
-    <col min="1804" max="2048" width="18.796875" style="18"/>
-    <col min="2049" max="2049" width="11.33203125" style="18" customWidth="1"/>
-    <col min="2050" max="2050" width="83.33203125" style="18" customWidth="1"/>
+    <col min="1796" max="1801" width="18.86328125" style="18"/>
+    <col min="1802" max="1802" width="18.86328125" style="18" customWidth="1"/>
+    <col min="1803" max="1803" width="12.3984375" style="18" customWidth="1"/>
+    <col min="1804" max="2048" width="18.86328125" style="18"/>
+    <col min="2049" max="2049" width="11.265625" style="18" customWidth="1"/>
+    <col min="2050" max="2050" width="83.265625" style="18" customWidth="1"/>
     <col min="2051" max="2051" width="20.1328125" style="18" customWidth="1"/>
-    <col min="2052" max="2057" width="18.796875" style="18"/>
-    <col min="2058" max="2058" width="18.796875" style="18" customWidth="1"/>
-    <col min="2059" max="2059" width="12.33203125" style="18" customWidth="1"/>
-    <col min="2060" max="2304" width="18.796875" style="18"/>
-    <col min="2305" max="2305" width="11.33203125" style="18" customWidth="1"/>
-    <col min="2306" max="2306" width="83.33203125" style="18" customWidth="1"/>
+    <col min="2052" max="2057" width="18.86328125" style="18"/>
+    <col min="2058" max="2058" width="18.86328125" style="18" customWidth="1"/>
+    <col min="2059" max="2059" width="12.3984375" style="18" customWidth="1"/>
+    <col min="2060" max="2304" width="18.86328125" style="18"/>
+    <col min="2305" max="2305" width="11.265625" style="18" customWidth="1"/>
+    <col min="2306" max="2306" width="83.265625" style="18" customWidth="1"/>
     <col min="2307" max="2307" width="20.1328125" style="18" customWidth="1"/>
-    <col min="2308" max="2313" width="18.796875" style="18"/>
-    <col min="2314" max="2314" width="18.796875" style="18" customWidth="1"/>
-    <col min="2315" max="2315" width="12.33203125" style="18" customWidth="1"/>
-    <col min="2316" max="2560" width="18.796875" style="18"/>
-    <col min="2561" max="2561" width="11.33203125" style="18" customWidth="1"/>
-    <col min="2562" max="2562" width="83.33203125" style="18" customWidth="1"/>
+    <col min="2308" max="2313" width="18.86328125" style="18"/>
+    <col min="2314" max="2314" width="18.86328125" style="18" customWidth="1"/>
+    <col min="2315" max="2315" width="12.3984375" style="18" customWidth="1"/>
+    <col min="2316" max="2560" width="18.86328125" style="18"/>
+    <col min="2561" max="2561" width="11.265625" style="18" customWidth="1"/>
+    <col min="2562" max="2562" width="83.265625" style="18" customWidth="1"/>
     <col min="2563" max="2563" width="20.1328125" style="18" customWidth="1"/>
-    <col min="2564" max="2569" width="18.796875" style="18"/>
-    <col min="2570" max="2570" width="18.796875" style="18" customWidth="1"/>
-    <col min="2571" max="2571" width="12.33203125" style="18" customWidth="1"/>
-    <col min="2572" max="2816" width="18.796875" style="18"/>
-    <col min="2817" max="2817" width="11.33203125" style="18" customWidth="1"/>
-    <col min="2818" max="2818" width="83.33203125" style="18" customWidth="1"/>
+    <col min="2564" max="2569" width="18.86328125" style="18"/>
+    <col min="2570" max="2570" width="18.86328125" style="18" customWidth="1"/>
+    <col min="2571" max="2571" width="12.3984375" style="18" customWidth="1"/>
+    <col min="2572" max="2816" width="18.86328125" style="18"/>
+    <col min="2817" max="2817" width="11.265625" style="18" customWidth="1"/>
+    <col min="2818" max="2818" width="83.265625" style="18" customWidth="1"/>
     <col min="2819" max="2819" width="20.1328125" style="18" customWidth="1"/>
-    <col min="2820" max="2825" width="18.796875" style="18"/>
-    <col min="2826" max="2826" width="18.796875" style="18" customWidth="1"/>
-    <col min="2827" max="2827" width="12.33203125" style="18" customWidth="1"/>
-    <col min="2828" max="3072" width="18.796875" style="18"/>
-    <col min="3073" max="3073" width="11.33203125" style="18" customWidth="1"/>
-    <col min="3074" max="3074" width="83.33203125" style="18" customWidth="1"/>
+    <col min="2820" max="2825" width="18.86328125" style="18"/>
+    <col min="2826" max="2826" width="18.86328125" style="18" customWidth="1"/>
+    <col min="2827" max="2827" width="12.3984375" style="18" customWidth="1"/>
+    <col min="2828" max="3072" width="18.86328125" style="18"/>
+    <col min="3073" max="3073" width="11.265625" style="18" customWidth="1"/>
+    <col min="3074" max="3074" width="83.265625" style="18" customWidth="1"/>
     <col min="3075" max="3075" width="20.1328125" style="18" customWidth="1"/>
-    <col min="3076" max="3081" width="18.796875" style="18"/>
-    <col min="3082" max="3082" width="18.796875" style="18" customWidth="1"/>
-    <col min="3083" max="3083" width="12.33203125" style="18" customWidth="1"/>
-    <col min="3084" max="3328" width="18.796875" style="18"/>
-    <col min="3329" max="3329" width="11.33203125" style="18" customWidth="1"/>
-    <col min="3330" max="3330" width="83.33203125" style="18" customWidth="1"/>
+    <col min="3076" max="3081" width="18.86328125" style="18"/>
+    <col min="3082" max="3082" width="18.86328125" style="18" customWidth="1"/>
+    <col min="3083" max="3083" width="12.3984375" style="18" customWidth="1"/>
+    <col min="3084" max="3328" width="18.86328125" style="18"/>
+    <col min="3329" max="3329" width="11.265625" style="18" customWidth="1"/>
+    <col min="3330" max="3330" width="83.265625" style="18" customWidth="1"/>
     <col min="3331" max="3331" width="20.1328125" style="18" customWidth="1"/>
-    <col min="3332" max="3337" width="18.796875" style="18"/>
-    <col min="3338" max="3338" width="18.796875" style="18" customWidth="1"/>
-    <col min="3339" max="3339" width="12.33203125" style="18" customWidth="1"/>
-    <col min="3340" max="3584" width="18.796875" style="18"/>
-    <col min="3585" max="3585" width="11.33203125" style="18" customWidth="1"/>
-    <col min="3586" max="3586" width="83.33203125" style="18" customWidth="1"/>
+    <col min="3332" max="3337" width="18.86328125" style="18"/>
+    <col min="3338" max="3338" width="18.86328125" style="18" customWidth="1"/>
+    <col min="3339" max="3339" width="12.3984375" style="18" customWidth="1"/>
+    <col min="3340" max="3584" width="18.86328125" style="18"/>
+    <col min="3585" max="3585" width="11.265625" style="18" customWidth="1"/>
+    <col min="3586" max="3586" width="83.265625" style="18" customWidth="1"/>
     <col min="3587" max="3587" width="20.1328125" style="18" customWidth="1"/>
-    <col min="3588" max="3593" width="18.796875" style="18"/>
-    <col min="3594" max="3594" width="18.796875" style="18" customWidth="1"/>
-    <col min="3595" max="3595" width="12.33203125" style="18" customWidth="1"/>
-    <col min="3596" max="3840" width="18.796875" style="18"/>
-    <col min="3841" max="3841" width="11.33203125" style="18" customWidth="1"/>
-    <col min="3842" max="3842" width="83.33203125" style="18" customWidth="1"/>
+    <col min="3588" max="3593" width="18.86328125" style="18"/>
+    <col min="3594" max="3594" width="18.86328125" style="18" customWidth="1"/>
+    <col min="3595" max="3595" width="12.3984375" style="18" customWidth="1"/>
+    <col min="3596" max="3840" width="18.86328125" style="18"/>
+    <col min="3841" max="3841" width="11.265625" style="18" customWidth="1"/>
+    <col min="3842" max="3842" width="83.265625" style="18" customWidth="1"/>
     <col min="3843" max="3843" width="20.1328125" style="18" customWidth="1"/>
-    <col min="3844" max="3849" width="18.796875" style="18"/>
-    <col min="3850" max="3850" width="18.796875" style="18" customWidth="1"/>
-    <col min="3851" max="3851" width="12.33203125" style="18" customWidth="1"/>
-    <col min="3852" max="4096" width="18.796875" style="18"/>
-    <col min="4097" max="4097" width="11.33203125" style="18" customWidth="1"/>
-    <col min="4098" max="4098" width="83.33203125" style="18" customWidth="1"/>
+    <col min="3844" max="3849" width="18.86328125" style="18"/>
+    <col min="3850" max="3850" width="18.86328125" style="18" customWidth="1"/>
+    <col min="3851" max="3851" width="12.3984375" style="18" customWidth="1"/>
+    <col min="3852" max="4096" width="18.86328125" style="18"/>
+    <col min="4097" max="4097" width="11.265625" style="18" customWidth="1"/>
+    <col min="4098" max="4098" width="83.265625" style="18" customWidth="1"/>
     <col min="4099" max="4099" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4100" max="4105" width="18.796875" style="18"/>
-    <col min="4106" max="4106" width="18.796875" style="18" customWidth="1"/>
-    <col min="4107" max="4107" width="12.33203125" style="18" customWidth="1"/>
-    <col min="4108" max="4352" width="18.796875" style="18"/>
-    <col min="4353" max="4353" width="11.33203125" style="18" customWidth="1"/>
-    <col min="4354" max="4354" width="83.33203125" style="18" customWidth="1"/>
+    <col min="4100" max="4105" width="18.86328125" style="18"/>
+    <col min="4106" max="4106" width="18.86328125" style="18" customWidth="1"/>
+    <col min="4107" max="4107" width="12.3984375" style="18" customWidth="1"/>
+    <col min="4108" max="4352" width="18.86328125" style="18"/>
+    <col min="4353" max="4353" width="11.265625" style="18" customWidth="1"/>
+    <col min="4354" max="4354" width="83.265625" style="18" customWidth="1"/>
     <col min="4355" max="4355" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4356" max="4361" width="18.796875" style="18"/>
-    <col min="4362" max="4362" width="18.796875" style="18" customWidth="1"/>
-    <col min="4363" max="4363" width="12.33203125" style="18" customWidth="1"/>
-    <col min="4364" max="4608" width="18.796875" style="18"/>
-    <col min="4609" max="4609" width="11.33203125" style="18" customWidth="1"/>
-    <col min="4610" max="4610" width="83.33203125" style="18" customWidth="1"/>
+    <col min="4356" max="4361" width="18.86328125" style="18"/>
+    <col min="4362" max="4362" width="18.86328125" style="18" customWidth="1"/>
+    <col min="4363" max="4363" width="12.3984375" style="18" customWidth="1"/>
+    <col min="4364" max="4608" width="18.86328125" style="18"/>
+    <col min="4609" max="4609" width="11.265625" style="18" customWidth="1"/>
+    <col min="4610" max="4610" width="83.265625" style="18" customWidth="1"/>
     <col min="4611" max="4611" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4612" max="4617" width="18.796875" style="18"/>
-    <col min="4618" max="4618" width="18.796875" style="18" customWidth="1"/>
-    <col min="4619" max="4619" width="12.33203125" style="18" customWidth="1"/>
-    <col min="4620" max="4864" width="18.796875" style="18"/>
-    <col min="4865" max="4865" width="11.33203125" style="18" customWidth="1"/>
-    <col min="4866" max="4866" width="83.33203125" style="18" customWidth="1"/>
+    <col min="4612" max="4617" width="18.86328125" style="18"/>
+    <col min="4618" max="4618" width="18.86328125" style="18" customWidth="1"/>
+    <col min="4619" max="4619" width="12.3984375" style="18" customWidth="1"/>
+    <col min="4620" max="4864" width="18.86328125" style="18"/>
+    <col min="4865" max="4865" width="11.265625" style="18" customWidth="1"/>
+    <col min="4866" max="4866" width="83.265625" style="18" customWidth="1"/>
     <col min="4867" max="4867" width="20.1328125" style="18" customWidth="1"/>
-    <col min="4868" max="4873" width="18.796875" style="18"/>
-    <col min="4874" max="4874" width="18.796875" style="18" customWidth="1"/>
-    <col min="4875" max="4875" width="12.33203125" style="18" customWidth="1"/>
-    <col min="4876" max="5120" width="18.796875" style="18"/>
-    <col min="5121" max="5121" width="11.33203125" style="18" customWidth="1"/>
-    <col min="5122" max="5122" width="83.33203125" style="18" customWidth="1"/>
+    <col min="4868" max="4873" width="18.86328125" style="18"/>
+    <col min="4874" max="4874" width="18.86328125" style="18" customWidth="1"/>
+    <col min="4875" max="4875" width="12.3984375" style="18" customWidth="1"/>
+    <col min="4876" max="5120" width="18.86328125" style="18"/>
+    <col min="5121" max="5121" width="11.265625" style="18" customWidth="1"/>
+    <col min="5122" max="5122" width="83.265625" style="18" customWidth="1"/>
     <col min="5123" max="5123" width="20.1328125" style="18" customWidth="1"/>
-    <col min="5124" max="5129" width="18.796875" style="18"/>
-    <col min="5130" max="5130" width="18.796875" style="18" customWidth="1"/>
-    <col min="5131" max="5131" width="12.33203125" style="18" customWidth="1"/>
-    <col min="5132" max="5376" width="18.796875" style="18"/>
-    <col min="5377" max="5377" width="11.33203125" style="18" customWidth="1"/>
-    <col min="5378" max="5378" width="83.33203125" style="18" customWidth="1"/>
+    <col min="5124" max="5129" width="18.86328125" style="18"/>
+    <col min="5130" max="5130" width="18.86328125" style="18" customWidth="1"/>
+    <col min="5131" max="5131" width="12.3984375" style="18" customWidth="1"/>
+    <col min="5132" max="5376" width="18.86328125" style="18"/>
+    <col min="5377" max="5377" width="11.265625" style="18" customWidth="1"/>
+    <col min="5378" max="5378" width="83.265625" style="18" customWidth="1"/>
     <col min="5379" max="5379" width="20.1328125" style="18" customWidth="1"/>
-    <col min="5380" max="5385" width="18.796875" style="18"/>
-    <col min="5386" max="5386" width="18.796875" style="18" customWidth="1"/>
-    <col min="5387" max="5387" width="12.33203125" style="18" customWidth="1"/>
-    <col min="5388" max="5632" width="18.796875" style="18"/>
-    <col min="5633" max="5633" width="11.33203125" style="18" customWidth="1"/>
-    <col min="5634" max="5634" width="83.33203125" style="18" customWidth="1"/>
+    <col min="5380" max="5385" width="18.86328125" style="18"/>
+    <col min="5386" max="5386" width="18.86328125" style="18" customWidth="1"/>
+    <col min="5387" max="5387" width="12.3984375" style="18" customWidth="1"/>
+    <col min="5388" max="5632" width="18.86328125" style="18"/>
+    <col min="5633" max="5633" width="11.265625" style="18" customWidth="1"/>
+    <col min="5634" max="5634" width="83.265625" style="18" customWidth="1"/>
     <col min="5635" max="5635" width="20.1328125" style="18" customWidth="1"/>
-    <col min="5636" max="5641" width="18.796875" style="18"/>
-    <col min="5642" max="5642" width="18.796875" style="18" customWidth="1"/>
-    <col min="5643" max="5643" width="12.33203125" style="18" customWidth="1"/>
-    <col min="5644" max="5888" width="18.796875" style="18"/>
-    <col min="5889" max="5889" width="11.33203125" style="18" customWidth="1"/>
-    <col min="5890" max="5890" width="83.33203125" style="18" customWidth="1"/>
+    <col min="5636" max="5641" width="18.86328125" style="18"/>
+    <col min="5642" max="5642" width="18.86328125" style="18" customWidth="1"/>
+    <col min="5643" max="5643" width="12.3984375" style="18" customWidth="1"/>
+    <col min="5644" max="5888" width="18.86328125" style="18"/>
+    <col min="5889" max="5889" width="11.265625" style="18" customWidth="1"/>
+    <col min="5890" max="5890" width="83.265625" style="18" customWidth="1"/>
     <col min="5891" max="5891" width="20.1328125" style="18" customWidth="1"/>
-    <col min="5892" max="5897" width="18.796875" style="18"/>
-    <col min="5898" max="5898" width="18.796875" style="18" customWidth="1"/>
-    <col min="5899" max="5899" width="12.33203125" style="18" customWidth="1"/>
-    <col min="5900" max="6144" width="18.796875" style="18"/>
-    <col min="6145" max="6145" width="11.33203125" style="18" customWidth="1"/>
-    <col min="6146" max="6146" width="83.33203125" style="18" customWidth="1"/>
+    <col min="5892" max="5897" width="18.86328125" style="18"/>
+    <col min="5898" max="5898" width="18.86328125" style="18" customWidth="1"/>
+    <col min="5899" max="5899" width="12.3984375" style="18" customWidth="1"/>
+    <col min="5900" max="6144" width="18.86328125" style="18"/>
+    <col min="6145" max="6145" width="11.265625" style="18" customWidth="1"/>
+    <col min="6146" max="6146" width="83.265625" style="18" customWidth="1"/>
     <col min="6147" max="6147" width="20.1328125" style="18" customWidth="1"/>
-    <col min="6148" max="6153" width="18.796875" style="18"/>
-    <col min="6154" max="6154" width="18.796875" style="18" customWidth="1"/>
-    <col min="6155" max="6155" width="12.33203125" style="18" customWidth="1"/>
-    <col min="6156" max="6400" width="18.796875" style="18"/>
-    <col min="6401" max="6401" width="11.33203125" style="18" customWidth="1"/>
-    <col min="6402" max="6402" width="83.33203125" style="18" customWidth="1"/>
+    <col min="6148" max="6153" width="18.86328125" style="18"/>
+    <col min="6154" max="6154" width="18.86328125" style="18" customWidth="1"/>
+    <col min="6155" max="6155" width="12.3984375" style="18" customWidth="1"/>
+    <col min="6156" max="6400" width="18.86328125" style="18"/>
+    <col min="6401" max="6401" width="11.265625" style="18" customWidth="1"/>
+    <col min="6402" max="6402" width="83.265625" style="18" customWidth="1"/>
     <col min="6403" max="6403" width="20.1328125" style="18" customWidth="1"/>
-    <col min="6404" max="6409" width="18.796875" style="18"/>
-    <col min="6410" max="6410" width="18.796875" style="18" customWidth="1"/>
-    <col min="6411" max="6411" width="12.33203125" style="18" customWidth="1"/>
-    <col min="6412" max="6656" width="18.796875" style="18"/>
-    <col min="6657" max="6657" width="11.33203125" style="18" customWidth="1"/>
-    <col min="6658" max="6658" width="83.33203125" style="18" customWidth="1"/>
+    <col min="6404" max="6409" width="18.86328125" style="18"/>
+    <col min="6410" max="6410" width="18.86328125" style="18" customWidth="1"/>
+    <col min="6411" max="6411" width="12.3984375" style="18" customWidth="1"/>
+    <col min="6412" max="6656" width="18.86328125" style="18"/>
+    <col min="6657" max="6657" width="11.265625" style="18" customWidth="1"/>
+    <col min="6658" max="6658" width="83.265625" style="18" customWidth="1"/>
     <col min="6659" max="6659" width="20.1328125" style="18" customWidth="1"/>
-    <col min="6660" max="6665" width="18.796875" style="18"/>
-    <col min="6666" max="6666" width="18.796875" style="18" customWidth="1"/>
-    <col min="6667" max="6667" width="12.33203125" style="18" customWidth="1"/>
-    <col min="6668" max="6912" width="18.796875" style="18"/>
-    <col min="6913" max="6913" width="11.33203125" style="18" customWidth="1"/>
-    <col min="6914" max="6914" width="83.33203125" style="18" customWidth="1"/>
+    <col min="6660" max="6665" width="18.86328125" style="18"/>
+    <col min="6666" max="6666" width="18.86328125" style="18" customWidth="1"/>
+    <col min="6667" max="6667" width="12.3984375" style="18" customWidth="1"/>
+    <col min="6668" max="6912" width="18.86328125" style="18"/>
+    <col min="6913" max="6913" width="11.265625" style="18" customWidth="1"/>
+    <col min="6914" max="6914" width="83.265625" style="18" customWidth="1"/>
     <col min="6915" max="6915" width="20.1328125" style="18" customWidth="1"/>
-    <col min="6916" max="6921" width="18.796875" style="18"/>
-    <col min="6922" max="6922" width="18.796875" style="18" customWidth="1"/>
-    <col min="6923" max="6923" width="12.33203125" style="18" customWidth="1"/>
-    <col min="6924" max="7168" width="18.796875" style="18"/>
-    <col min="7169" max="7169" width="11.33203125" style="18" customWidth="1"/>
-    <col min="7170" max="7170" width="83.33203125" style="18" customWidth="1"/>
+    <col min="6916" max="6921" width="18.86328125" style="18"/>
+    <col min="6922" max="6922" width="18.86328125" style="18" customWidth="1"/>
+    <col min="6923" max="6923" width="12.3984375" style="18" customWidth="1"/>
+    <col min="6924" max="7168" width="18.86328125" style="18"/>
+    <col min="7169" max="7169" width="11.265625" style="18" customWidth="1"/>
+    <col min="7170" max="7170" width="83.265625" style="18" customWidth="1"/>
     <col min="7171" max="7171" width="20.1328125" style="18" customWidth="1"/>
-    <col min="7172" max="7177" width="18.796875" style="18"/>
-    <col min="7178" max="7178" width="18.796875" style="18" customWidth="1"/>
-    <col min="7179" max="7179" width="12.33203125" style="18" customWidth="1"/>
-    <col min="7180" max="7424" width="18.796875" style="18"/>
-    <col min="7425" max="7425" width="11.33203125" style="18" customWidth="1"/>
-    <col min="7426" max="7426" width="83.33203125" style="18" customWidth="1"/>
+    <col min="7172" max="7177" width="18.86328125" style="18"/>
+    <col min="7178" max="7178" width="18.86328125" style="18" customWidth="1"/>
+    <col min="7179" max="7179" width="12.3984375" style="18" customWidth="1"/>
+    <col min="7180" max="7424" width="18.86328125" style="18"/>
+    <col min="7425" max="7425" width="11.265625" style="18" customWidth="1"/>
+    <col min="7426" max="7426" width="83.265625" style="18" customWidth="1"/>
     <col min="7427" max="7427" width="20.1328125" style="18" customWidth="1"/>
-    <col min="7428" max="7433" width="18.796875" style="18"/>
-    <col min="7434" max="7434" width="18.796875" style="18" customWidth="1"/>
-    <col min="7435" max="7435" width="12.33203125" style="18" customWidth="1"/>
-    <col min="7436" max="7680" width="18.796875" style="18"/>
-    <col min="7681" max="7681" width="11.33203125" style="18" customWidth="1"/>
-    <col min="7682" max="7682" width="83.33203125" style="18" customWidth="1"/>
+    <col min="7428" max="7433" width="18.86328125" style="18"/>
+    <col min="7434" max="7434" width="18.86328125" style="18" customWidth="1"/>
+    <col min="7435" max="7435" width="12.3984375" style="18" customWidth="1"/>
+    <col min="7436" max="7680" width="18.86328125" style="18"/>
+    <col min="7681" max="7681" width="11.265625" style="18" customWidth="1"/>
+    <col min="7682" max="7682" width="83.265625" style="18" customWidth="1"/>
     <col min="7683" max="7683" width="20.1328125" style="18" customWidth="1"/>
-    <col min="7684" max="7689" width="18.796875" style="18"/>
-    <col min="7690" max="7690" width="18.796875" style="18" customWidth="1"/>
-    <col min="7691" max="7691" width="12.33203125" style="18" customWidth="1"/>
-    <col min="7692" max="7936" width="18.796875" style="18"/>
-    <col min="7937" max="7937" width="11.33203125" style="18" customWidth="1"/>
-    <col min="7938" max="7938" width="83.33203125" style="18" customWidth="1"/>
+    <col min="7684" max="7689" width="18.86328125" style="18"/>
+    <col min="7690" max="7690" width="18.86328125" style="18" customWidth="1"/>
+    <col min="7691" max="7691" width="12.3984375" style="18" customWidth="1"/>
+    <col min="7692" max="7936" width="18.86328125" style="18"/>
+    <col min="7937" max="7937" width="11.265625" style="18" customWidth="1"/>
+    <col min="7938" max="7938" width="83.265625" style="18" customWidth="1"/>
     <col min="7939" max="7939" width="20.1328125" style="18" customWidth="1"/>
-    <col min="7940" max="7945" width="18.796875" style="18"/>
-    <col min="7946" max="7946" width="18.796875" style="18" customWidth="1"/>
-    <col min="7947" max="7947" width="12.33203125" style="18" customWidth="1"/>
-    <col min="7948" max="8192" width="18.796875" style="18"/>
-    <col min="8193" max="8193" width="11.33203125" style="18" customWidth="1"/>
-    <col min="8194" max="8194" width="83.33203125" style="18" customWidth="1"/>
+    <col min="7940" max="7945" width="18.86328125" style="18"/>
+    <col min="7946" max="7946" width="18.86328125" style="18" customWidth="1"/>
+    <col min="7947" max="7947" width="12.3984375" style="18" customWidth="1"/>
+    <col min="7948" max="8192" width="18.86328125" style="18"/>
+    <col min="8193" max="8193" width="11.265625" style="18" customWidth="1"/>
+    <col min="8194" max="8194" width="83.265625" style="18" customWidth="1"/>
     <col min="8195" max="8195" width="20.1328125" style="18" customWidth="1"/>
-    <col min="8196" max="8201" width="18.796875" style="18"/>
-    <col min="8202" max="8202" width="18.796875" style="18" customWidth="1"/>
-    <col min="8203" max="8203" width="12.33203125" style="18" customWidth="1"/>
-    <col min="8204" max="8448" width="18.796875" style="18"/>
-    <col min="8449" max="8449" width="11.33203125" style="18" customWidth="1"/>
-    <col min="8450" max="8450" width="83.33203125" style="18" customWidth="1"/>
+    <col min="8196" max="8201" width="18.86328125" style="18"/>
+    <col min="8202" max="8202" width="18.86328125" style="18" customWidth="1"/>
+    <col min="8203" max="8203" width="12.3984375" style="18" customWidth="1"/>
+    <col min="8204" max="8448" width="18.86328125" style="18"/>
+    <col min="8449" max="8449" width="11.265625" style="18" customWidth="1"/>
+    <col min="8450" max="8450" width="83.265625" style="18" customWidth="1"/>
     <col min="8451" max="8451" width="20.1328125" style="18" customWidth="1"/>
-    <col min="8452" max="8457" width="18.796875" style="18"/>
-    <col min="8458" max="8458" width="18.796875" style="18" customWidth="1"/>
-    <col min="8459" max="8459" width="12.33203125" style="18" customWidth="1"/>
-    <col min="8460" max="8704" width="18.796875" style="18"/>
-    <col min="8705" max="8705" width="11.33203125" style="18" customWidth="1"/>
-    <col min="8706" max="8706" width="83.33203125" style="18" customWidth="1"/>
+    <col min="8452" max="8457" width="18.86328125" style="18"/>
+    <col min="8458" max="8458" width="18.86328125" style="18" customWidth="1"/>
+    <col min="8459" max="8459" width="12.3984375" style="18" customWidth="1"/>
+    <col min="8460" max="8704" width="18.86328125" style="18"/>
+    <col min="8705" max="8705" width="11.265625" style="18" customWidth="1"/>
+    <col min="8706" max="8706" width="83.265625" style="18" customWidth="1"/>
     <col min="8707" max="8707" width="20.1328125" style="18" customWidth="1"/>
-    <col min="8708" max="8713" width="18.796875" style="18"/>
-    <col min="8714" max="8714" width="18.796875" style="18" customWidth="1"/>
-    <col min="8715" max="8715" width="12.33203125" style="18" customWidth="1"/>
-    <col min="8716" max="8960" width="18.796875" style="18"/>
-    <col min="8961" max="8961" width="11.33203125" style="18" customWidth="1"/>
-    <col min="8962" max="8962" width="83.33203125" style="18" customWidth="1"/>
+    <col min="8708" max="8713" width="18.86328125" style="18"/>
+    <col min="8714" max="8714" width="18.86328125" style="18" customWidth="1"/>
+    <col min="8715" max="8715" width="12.3984375" style="18" customWidth="1"/>
+    <col min="8716" max="8960" width="18.86328125" style="18"/>
+    <col min="8961" max="8961" width="11.265625" style="18" customWidth="1"/>
+    <col min="8962" max="8962" width="83.265625" style="18" customWidth="1"/>
     <col min="8963" max="8963" width="20.1328125" style="18" customWidth="1"/>
-    <col min="8964" max="8969" width="18.796875" style="18"/>
-    <col min="8970" max="8970" width="18.796875" style="18" customWidth="1"/>
-    <col min="8971" max="8971" width="12.33203125" style="18" customWidth="1"/>
-    <col min="8972" max="9216" width="18.796875" style="18"/>
-    <col min="9217" max="9217" width="11.33203125" style="18" customWidth="1"/>
-    <col min="9218" max="9218" width="83.33203125" style="18" customWidth="1"/>
+    <col min="8964" max="8969" width="18.86328125" style="18"/>
+    <col min="8970" max="8970" width="18.86328125" style="18" customWidth="1"/>
+    <col min="8971" max="8971" width="12.3984375" style="18" customWidth="1"/>
+    <col min="8972" max="9216" width="18.86328125" style="18"/>
+    <col min="9217" max="9217" width="11.265625" style="18" customWidth="1"/>
+    <col min="9218" max="9218" width="83.265625" style="18" customWidth="1"/>
     <col min="9219" max="9219" width="20.1328125" style="18" customWidth="1"/>
-    <col min="9220" max="9225" width="18.796875" style="18"/>
-    <col min="9226" max="9226" width="18.796875" style="18" customWidth="1"/>
-    <col min="9227" max="9227" width="12.33203125" style="18" customWidth="1"/>
-    <col min="9228" max="9472" width="18.796875" style="18"/>
-    <col min="9473" max="9473" width="11.33203125" style="18" customWidth="1"/>
-    <col min="9474" max="9474" width="83.33203125" style="18" customWidth="1"/>
+    <col min="9220" max="9225" width="18.86328125" style="18"/>
+    <col min="9226" max="9226" width="18.86328125" style="18" customWidth="1"/>
+    <col min="9227" max="9227" width="12.3984375" style="18" customWidth="1"/>
+    <col min="9228" max="9472" width="18.86328125" style="18"/>
+    <col min="9473" max="9473" width="11.265625" style="18" customWidth="1"/>
+    <col min="9474" max="9474" width="83.265625" style="18" customWidth="1"/>
     <col min="9475" max="9475" width="20.1328125" style="18" customWidth="1"/>
-    <col min="9476" max="9481" width="18.796875" style="18"/>
-    <col min="9482" max="9482" width="18.796875" style="18" customWidth="1"/>
-    <col min="9483" max="9483" width="12.33203125" style="18" customWidth="1"/>
-    <col min="9484" max="9728" width="18.796875" style="18"/>
-    <col min="9729" max="9729" width="11.33203125" style="18" customWidth="1"/>
-    <col min="9730" max="9730" width="83.33203125" style="18" customWidth="1"/>
+    <col min="9476" max="9481" width="18.86328125" style="18"/>
+    <col min="9482" max="9482" width="18.86328125" style="18" customWidth="1"/>
+    <col min="9483" max="9483" width="12.3984375" style="18" customWidth="1"/>
+    <col min="9484" max="9728" width="18.86328125" style="18"/>
+    <col min="9729" max="9729" width="11.265625" style="18" customWidth="1"/>
+    <col min="9730" max="9730" width="83.265625" style="18" customWidth="1"/>
     <col min="9731" max="9731" width="20.1328125" style="18" customWidth="1"/>
-    <col min="9732" max="9737" width="18.796875" style="18"/>
-    <col min="9738" max="9738" width="18.796875" style="18" customWidth="1"/>
-    <col min="9739" max="9739" width="12.33203125" style="18" customWidth="1"/>
-    <col min="9740" max="9984" width="18.796875" style="18"/>
-    <col min="9985" max="9985" width="11.33203125" style="18" customWidth="1"/>
-    <col min="9986" max="9986" width="83.33203125" style="18" customWidth="1"/>
+    <col min="9732" max="9737" width="18.86328125" style="18"/>
+    <col min="9738" max="9738" width="18.86328125" style="18" customWidth="1"/>
+    <col min="9739" max="9739" width="12.3984375" style="18" customWidth="1"/>
+    <col min="9740" max="9984" width="18.86328125" style="18"/>
+    <col min="9985" max="9985" width="11.265625" style="18" customWidth="1"/>
+    <col min="9986" max="9986" width="83.265625" style="18" customWidth="1"/>
     <col min="9987" max="9987" width="20.1328125" style="18" customWidth="1"/>
-    <col min="9988" max="9993" width="18.796875" style="18"/>
-    <col min="9994" max="9994" width="18.796875" style="18" customWidth="1"/>
-    <col min="9995" max="9995" width="12.33203125" style="18" customWidth="1"/>
-    <col min="9996" max="10240" width="18.796875" style="18"/>
-    <col min="10241" max="10241" width="11.33203125" style="18" customWidth="1"/>
-    <col min="10242" max="10242" width="83.33203125" style="18" customWidth="1"/>
+    <col min="9988" max="9993" width="18.86328125" style="18"/>
+    <col min="9994" max="9994" width="18.86328125" style="18" customWidth="1"/>
+    <col min="9995" max="9995" width="12.3984375" style="18" customWidth="1"/>
+    <col min="9996" max="10240" width="18.86328125" style="18"/>
+    <col min="10241" max="10241" width="11.265625" style="18" customWidth="1"/>
+    <col min="10242" max="10242" width="83.265625" style="18" customWidth="1"/>
     <col min="10243" max="10243" width="20.1328125" style="18" customWidth="1"/>
-    <col min="10244" max="10249" width="18.796875" style="18"/>
-    <col min="10250" max="10250" width="18.796875" style="18" customWidth="1"/>
-    <col min="10251" max="10251" width="12.33203125" style="18" customWidth="1"/>
-    <col min="10252" max="10496" width="18.796875" style="18"/>
-    <col min="10497" max="10497" width="11.33203125" style="18" customWidth="1"/>
-    <col min="10498" max="10498" width="83.33203125" style="18" customWidth="1"/>
+    <col min="10244" max="10249" width="18.86328125" style="18"/>
+    <col min="10250" max="10250" width="18.86328125" style="18" customWidth="1"/>
+    <col min="10251" max="10251" width="12.3984375" style="18" customWidth="1"/>
+    <col min="10252" max="10496" width="18.86328125" style="18"/>
+    <col min="10497" max="10497" width="11.265625" style="18" customWidth="1"/>
+    <col min="10498" max="10498" width="83.265625" style="18" customWidth="1"/>
     <col min="10499" max="10499" width="20.1328125" style="18" customWidth="1"/>
-    <col min="10500" max="10505" width="18.796875" style="18"/>
-    <col min="10506" max="10506" width="18.796875" style="18" customWidth="1"/>
-    <col min="10507" max="10507" width="12.33203125" style="18" customWidth="1"/>
-    <col min="10508" max="10752" width="18.796875" style="18"/>
-    <col min="10753" max="10753" width="11.33203125" style="18" customWidth="1"/>
-    <col min="10754" max="10754" width="83.33203125" style="18" customWidth="1"/>
+    <col min="10500" max="10505" width="18.86328125" style="18"/>
+    <col min="10506" max="10506" width="18.86328125" style="18" customWidth="1"/>
+    <col min="10507" max="10507" width="12.3984375" style="18" customWidth="1"/>
+    <col min="10508" max="10752" width="18.86328125" style="18"/>
+    <col min="10753" max="10753" width="11.265625" style="18" customWidth="1"/>
+    <col min="10754" max="10754" width="83.265625" style="18" customWidth="1"/>
     <col min="10755" max="10755" width="20.1328125" style="18" customWidth="1"/>
-    <col min="10756" max="10761" width="18.796875" style="18"/>
-    <col min="10762" max="10762" width="18.796875" style="18" customWidth="1"/>
-    <col min="10763" max="10763" width="12.33203125" style="18" customWidth="1"/>
-    <col min="10764" max="11008" width="18.796875" style="18"/>
-    <col min="11009" max="11009" width="11.33203125" style="18" customWidth="1"/>
-    <col min="11010" max="11010" width="83.33203125" style="18" customWidth="1"/>
+    <col min="10756" max="10761" width="18.86328125" style="18"/>
+    <col min="10762" max="10762" width="18.86328125" style="18" customWidth="1"/>
+    <col min="10763" max="10763" width="12.3984375" style="18" customWidth="1"/>
+    <col min="10764" max="11008" width="18.86328125" style="18"/>
+    <col min="11009" max="11009" width="11.265625" style="18" customWidth="1"/>
+    <col min="11010" max="11010" width="83.265625" style="18" customWidth="1"/>
     <col min="11011" max="11011" width="20.1328125" style="18" customWidth="1"/>
-    <col min="11012" max="11017" width="18.796875" style="18"/>
-    <col min="11018" max="11018" width="18.796875" style="18" customWidth="1"/>
-    <col min="11019" max="11019" width="12.33203125" style="18" customWidth="1"/>
-    <col min="11020" max="11264" width="18.796875" style="18"/>
-    <col min="11265" max="11265" width="11.33203125" style="18" customWidth="1"/>
-    <col min="11266" max="11266" width="83.33203125" style="18" customWidth="1"/>
+    <col min="11012" max="11017" width="18.86328125" style="18"/>
+    <col min="11018" max="11018" width="18.86328125" style="18" customWidth="1"/>
+    <col min="11019" max="11019" width="12.3984375" style="18" customWidth="1"/>
+    <col min="11020" max="11264" width="18.86328125" style="18"/>
+    <col min="11265" max="11265" width="11.265625" style="18" customWidth="1"/>
+    <col min="11266" max="11266" width="83.265625" style="18" customWidth="1"/>
     <col min="11267" max="11267" width="20.1328125" style="18" customWidth="1"/>
-    <col min="11268" max="11273" width="18.796875" style="18"/>
-    <col min="11274" max="11274" width="18.796875" style="18" customWidth="1"/>
-    <col min="11275" max="11275" width="12.33203125" style="18" customWidth="1"/>
-    <col min="11276" max="11520" width="18.796875" style="18"/>
-    <col min="11521" max="11521" width="11.33203125" style="18" customWidth="1"/>
-    <col min="11522" max="11522" width="83.33203125" style="18" customWidth="1"/>
+    <col min="11268" max="11273" width="18.86328125" style="18"/>
+    <col min="11274" max="11274" width="18.86328125" style="18" customWidth="1"/>
+    <col min="11275" max="11275" width="12.3984375" style="18" customWidth="1"/>
+    <col min="11276" max="11520" width="18.86328125" style="18"/>
+    <col min="11521" max="11521" width="11.265625" style="18" customWidth="1"/>
+    <col min="11522" max="11522" width="83.265625" style="18" customWidth="1"/>
     <col min="11523" max="11523" width="20.1328125" style="18" customWidth="1"/>
-    <col min="11524" max="11529" width="18.796875" style="18"/>
-    <col min="11530" max="11530" width="18.796875" style="18" customWidth="1"/>
-    <col min="11531" max="11531" width="12.33203125" style="18" customWidth="1"/>
-    <col min="11532" max="11776" width="18.796875" style="18"/>
-    <col min="11777" max="11777" width="11.33203125" style="18" customWidth="1"/>
-    <col min="11778" max="11778" width="83.33203125" style="18" customWidth="1"/>
+    <col min="11524" max="11529" width="18.86328125" style="18"/>
+    <col min="11530" max="11530" width="18.86328125" style="18" customWidth="1"/>
+    <col min="11531" max="11531" width="12.3984375" style="18" customWidth="1"/>
+    <col min="11532" max="11776" width="18.86328125" style="18"/>
+    <col min="11777" max="11777" width="11.265625" style="18" customWidth="1"/>
+    <col min="11778" max="11778" width="83.265625" style="18" customWidth="1"/>
     <col min="11779" max="11779" width="20.1328125" style="18" customWidth="1"/>
-    <col min="11780" max="11785" width="18.796875" style="18"/>
-    <col min="11786" max="11786" width="18.796875" style="18" customWidth="1"/>
-    <col min="11787" max="11787" width="12.33203125" style="18" customWidth="1"/>
-    <col min="11788" max="12032" width="18.796875" style="18"/>
-    <col min="12033" max="12033" width="11.33203125" style="18" customWidth="1"/>
-    <col min="12034" max="12034" width="83.33203125" style="18" customWidth="1"/>
+    <col min="11780" max="11785" width="18.86328125" style="18"/>
+    <col min="11786" max="11786" width="18.86328125" style="18" customWidth="1"/>
+    <col min="11787" max="11787" width="12.3984375" style="18" customWidth="1"/>
+    <col min="11788" max="12032" width="18.86328125" style="18"/>
+    <col min="12033" max="12033" width="11.265625" style="18" customWidth="1"/>
+    <col min="12034" max="12034" width="83.265625" style="18" customWidth="1"/>
     <col min="12035" max="12035" width="20.1328125" style="18" customWidth="1"/>
-    <col min="12036" max="12041" width="18.796875" style="18"/>
-    <col min="12042" max="12042" width="18.796875" style="18" customWidth="1"/>
-    <col min="12043" max="12043" width="12.33203125" style="18" customWidth="1"/>
-    <col min="12044" max="12288" width="18.796875" style="18"/>
-    <col min="12289" max="12289" width="11.33203125" style="18" customWidth="1"/>
-    <col min="12290" max="12290" width="83.33203125" style="18" customWidth="1"/>
+    <col min="12036" max="12041" width="18.86328125" style="18"/>
+    <col min="12042" max="12042" width="18.86328125" style="18" customWidth="1"/>
+    <col min="12043" max="12043" width="12.3984375" style="18" customWidth="1"/>
+    <col min="12044" max="12288" width="18.86328125" style="18"/>
+    <col min="12289" max="12289" width="11.265625" style="18" customWidth="1"/>
+    <col min="12290" max="12290" width="83.265625" style="18" customWidth="1"/>
     <col min="12291" max="12291" width="20.1328125" style="18" customWidth="1"/>
-    <col min="12292" max="12297" width="18.796875" style="18"/>
-    <col min="12298" max="12298" width="18.796875" style="18" customWidth="1"/>
-    <col min="12299" max="12299" width="12.33203125" style="18" customWidth="1"/>
-    <col min="12300" max="12544" width="18.796875" style="18"/>
-    <col min="12545" max="12545" width="11.33203125" style="18" customWidth="1"/>
-    <col min="12546" max="12546" width="83.33203125" style="18" customWidth="1"/>
+    <col min="12292" max="12297" width="18.86328125" style="18"/>
+    <col min="12298" max="12298" width="18.86328125" style="18" customWidth="1"/>
+    <col min="12299" max="12299" width="12.3984375" style="18" customWidth="1"/>
+    <col min="12300" max="12544" width="18.86328125" style="18"/>
+    <col min="12545" max="12545" width="11.265625" style="18" customWidth="1"/>
+    <col min="12546" max="12546" width="83.265625" style="18" customWidth="1"/>
     <col min="12547" max="12547" width="20.1328125" style="18" customWidth="1"/>
-    <col min="12548" max="12553" width="18.796875" style="18"/>
-    <col min="12554" max="12554" width="18.796875" style="18" customWidth="1"/>
-    <col min="12555" max="12555" width="12.33203125" style="18" customWidth="1"/>
-    <col min="12556" max="12800" width="18.796875" style="18"/>
-    <col min="12801" max="12801" width="11.33203125" style="18" customWidth="1"/>
-    <col min="12802" max="12802" width="83.33203125" style="18" customWidth="1"/>
+    <col min="12548" max="12553" width="18.86328125" style="18"/>
+    <col min="12554" max="12554" width="18.86328125" style="18" customWidth="1"/>
+    <col min="12555" max="12555" width="12.3984375" style="18" customWidth="1"/>
+    <col min="12556" max="12800" width="18.86328125" style="18"/>
+    <col min="12801" max="12801" width="11.265625" style="18" customWidth="1"/>
+    <col min="12802" max="12802" width="83.265625" style="18" customWidth="1"/>
     <col min="12803" max="12803" width="20.1328125" style="18" customWidth="1"/>
-    <col min="12804" max="12809" width="18.796875" style="18"/>
-    <col min="12810" max="12810" width="18.796875" style="18" customWidth="1"/>
-    <col min="12811" max="12811" width="12.33203125" style="18" customWidth="1"/>
-    <col min="12812" max="13056" width="18.796875" style="18"/>
-    <col min="13057" max="13057" width="11.33203125" style="18" customWidth="1"/>
-    <col min="13058" max="13058" width="83.33203125" style="18" customWidth="1"/>
+    <col min="12804" max="12809" width="18.86328125" style="18"/>
+    <col min="12810" max="12810" width="18.86328125" style="18" customWidth="1"/>
+    <col min="12811" max="12811" width="12.3984375" style="18" customWidth="1"/>
+    <col min="12812" max="13056" width="18.86328125" style="18"/>
+    <col min="13057" max="13057" width="11.265625" style="18" customWidth="1"/>
+    <col min="13058" max="13058" width="83.265625" style="18" customWidth="1"/>
     <col min="13059" max="13059" width="20.1328125" style="18" customWidth="1"/>
-    <col min="13060" max="13065" width="18.796875" style="18"/>
-    <col min="13066" max="13066" width="18.796875" style="18" customWidth="1"/>
-    <col min="13067" max="13067" width="12.33203125" style="18" customWidth="1"/>
-    <col min="13068" max="13312" width="18.796875" style="18"/>
-    <col min="13313" max="13313" width="11.33203125" style="18" customWidth="1"/>
-    <col min="13314" max="13314" width="83.33203125" style="18" customWidth="1"/>
+    <col min="13060" max="13065" width="18.86328125" style="18"/>
+    <col min="13066" max="13066" width="18.86328125" style="18" customWidth="1"/>
+    <col min="13067" max="13067" width="12.3984375" style="18" customWidth="1"/>
+    <col min="13068" max="13312" width="18.86328125" style="18"/>
+    <col min="13313" max="13313" width="11.265625" style="18" customWidth="1"/>
+    <col min="13314" max="13314" width="83.265625" style="18" customWidth="1"/>
     <col min="13315" max="13315" width="20.1328125" style="18" customWidth="1"/>
-    <col min="13316" max="13321" width="18.796875" style="18"/>
-    <col min="13322" max="13322" width="18.796875" style="18" customWidth="1"/>
-    <col min="13323" max="13323" width="12.33203125" style="18" customWidth="1"/>
-    <col min="13324" max="13568" width="18.796875" style="18"/>
-    <col min="13569" max="13569" width="11.33203125" style="18" customWidth="1"/>
-    <col min="13570" max="13570" width="83.33203125" style="18" customWidth="1"/>
+    <col min="13316" max="13321" width="18.86328125" style="18"/>
+    <col min="13322" max="13322" width="18.86328125" style="18" customWidth="1"/>
+    <col min="13323" max="13323" width="12.3984375" style="18" customWidth="1"/>
+    <col min="13324" max="13568" width="18.86328125" style="18"/>
+    <col min="13569" max="13569" width="11.265625" style="18" customWidth="1"/>
+    <col min="13570" max="13570" width="83.265625" style="18" customWidth="1"/>
     <col min="13571" max="13571" width="20.1328125" style="18" customWidth="1"/>
-    <col min="13572" max="13577" width="18.796875" style="18"/>
-    <col min="13578" max="13578" width="18.796875" style="18" customWidth="1"/>
-    <col min="13579" max="13579" width="12.33203125" style="18" customWidth="1"/>
-    <col min="13580" max="13824" width="18.796875" style="18"/>
-    <col min="13825" max="13825" width="11.33203125" style="18" customWidth="1"/>
-    <col min="13826" max="13826" width="83.33203125" style="18" customWidth="1"/>
+    <col min="13572" max="13577" width="18.86328125" style="18"/>
+    <col min="13578" max="13578" width="18.86328125" style="18" customWidth="1"/>
+    <col min="13579" max="13579" width="12.3984375" style="18" customWidth="1"/>
+    <col min="13580" max="13824" width="18.86328125" style="18"/>
+    <col min="13825" max="13825" width="11.265625" style="18" customWidth="1"/>
+    <col min="13826" max="13826" width="83.265625" style="18" customWidth="1"/>
     <col min="13827" max="13827" width="20.1328125" style="18" customWidth="1"/>
-    <col min="13828" max="13833" width="18.796875" style="18"/>
-    <col min="13834" max="13834" width="18.796875" style="18" customWidth="1"/>
-    <col min="13835" max="13835" width="12.33203125" style="18" customWidth="1"/>
-    <col min="13836" max="14080" width="18.796875" style="18"/>
-    <col min="14081" max="14081" width="11.33203125" style="18" customWidth="1"/>
-    <col min="14082" max="14082" width="83.33203125" style="18" customWidth="1"/>
+    <col min="13828" max="13833" width="18.86328125" style="18"/>
+    <col min="13834" max="13834" width="18.86328125" style="18" customWidth="1"/>
+    <col min="13835" max="13835" width="12.3984375" style="18" customWidth="1"/>
+    <col min="13836" max="14080" width="18.86328125" style="18"/>
+    <col min="14081" max="14081" width="11.265625" style="18" customWidth="1"/>
+    <col min="14082" max="14082" width="83.265625" style="18" customWidth="1"/>
     <col min="14083" max="14083" width="20.1328125" style="18" customWidth="1"/>
-    <col min="14084" max="14089" width="18.796875" style="18"/>
-    <col min="14090" max="14090" width="18.796875" style="18" customWidth="1"/>
-    <col min="14091" max="14091" width="12.33203125" style="18" customWidth="1"/>
-    <col min="14092" max="14336" width="18.796875" style="18"/>
-    <col min="14337" max="14337" width="11.33203125" style="18" customWidth="1"/>
-    <col min="14338" max="14338" width="83.33203125" style="18" customWidth="1"/>
+    <col min="14084" max="14089" width="18.86328125" style="18"/>
+    <col min="14090" max="14090" width="18.86328125" style="18" customWidth="1"/>
+    <col min="14091" max="14091" width="12.3984375" style="18" customWidth="1"/>
+    <col min="14092" max="14336" width="18.86328125" style="18"/>
+    <col min="14337" max="14337" width="11.265625" style="18" customWidth="1"/>
+    <col min="14338" max="14338" width="83.265625" style="18" customWidth="1"/>
     <col min="14339" max="14339" width="20.1328125" style="18" customWidth="1"/>
-    <col min="14340" max="14345" width="18.796875" style="18"/>
-    <col min="14346" max="14346" width="18.796875" style="18" customWidth="1"/>
-    <col min="14347" max="14347" width="12.33203125" style="18" customWidth="1"/>
-    <col min="14348" max="14592" width="18.796875" style="18"/>
-    <col min="14593" max="14593" width="11.33203125" style="18" customWidth="1"/>
-    <col min="14594" max="14594" width="83.33203125" style="18" customWidth="1"/>
+    <col min="14340" max="14345" width="18.86328125" style="18"/>
+    <col min="14346" max="14346" width="18.86328125" style="18" customWidth="1"/>
+    <col min="14347" max="14347" width="12.3984375" style="18" customWidth="1"/>
+    <col min="14348" max="14592" width="18.86328125" style="18"/>
+    <col min="14593" max="14593" width="11.265625" style="18" customWidth="1"/>
+    <col min="14594" max="14594" width="83.265625" style="18" customWidth="1"/>
     <col min="14595" max="14595" width="20.1328125" style="18" customWidth="1"/>
-    <col min="14596" max="14601" width="18.796875" style="18"/>
-    <col min="14602" max="14602" width="18.796875" style="18" customWidth="1"/>
-    <col min="14603" max="14603" width="12.33203125" style="18" customWidth="1"/>
-    <col min="14604" max="14848" width="18.796875" style="18"/>
-    <col min="14849" max="14849" width="11.33203125" style="18" customWidth="1"/>
-    <col min="14850" max="14850" width="83.33203125" style="18" customWidth="1"/>
+    <col min="14596" max="14601" width="18.86328125" style="18"/>
+    <col min="14602" max="14602" width="18.86328125" style="18" customWidth="1"/>
+    <col min="14603" max="14603" width="12.3984375" style="18" customWidth="1"/>
+    <col min="14604" max="14848" width="18.86328125" style="18"/>
+    <col min="14849" max="14849" width="11.265625" style="18" customWidth="1"/>
+    <col min="14850" max="14850" width="83.265625" style="18" customWidth="1"/>
     <col min="14851" max="14851" width="20.1328125" style="18" customWidth="1"/>
-    <col min="14852" max="14857" width="18.796875" style="18"/>
-    <col min="14858" max="14858" width="18.796875" style="18" customWidth="1"/>
-    <col min="14859" max="14859" width="12.33203125" style="18" customWidth="1"/>
-    <col min="14860" max="15104" width="18.796875" style="18"/>
-    <col min="15105" max="15105" width="11.33203125" style="18" customWidth="1"/>
-    <col min="15106" max="15106" width="83.33203125" style="18" customWidth="1"/>
+    <col min="14852" max="14857" width="18.86328125" style="18"/>
+    <col min="14858" max="14858" width="18.86328125" style="18" customWidth="1"/>
+    <col min="14859" max="14859" width="12.3984375" style="18" customWidth="1"/>
+    <col min="14860" max="15104" width="18.86328125" style="18"/>
+    <col min="15105" max="15105" width="11.265625" style="18" customWidth="1"/>
+    <col min="15106" max="15106" width="83.265625" style="18" customWidth="1"/>
     <col min="15107" max="15107" width="20.1328125" style="18" customWidth="1"/>
-    <col min="15108" max="15113" width="18.796875" style="18"/>
-    <col min="15114" max="15114" width="18.796875" style="18" customWidth="1"/>
-    <col min="15115" max="15115" width="12.33203125" style="18" customWidth="1"/>
-    <col min="15116" max="15360" width="18.796875" style="18"/>
-    <col min="15361" max="15361" width="11.33203125" style="18" customWidth="1"/>
-    <col min="15362" max="15362" width="83.33203125" style="18" customWidth="1"/>
+    <col min="15108" max="15113" width="18.86328125" style="18"/>
+    <col min="15114" max="15114" width="18.86328125" style="18" customWidth="1"/>
+    <col min="15115" max="15115" width="12.3984375" style="18" customWidth="1"/>
+    <col min="15116" max="15360" width="18.86328125" style="18"/>
+    <col min="15361" max="15361" width="11.265625" style="18" customWidth="1"/>
+    <col min="15362" max="15362" width="83.265625" style="18" customWidth="1"/>
     <col min="15363" max="15363" width="20.1328125" style="18" customWidth="1"/>
-    <col min="15364" max="15369" width="18.796875" style="18"/>
-    <col min="15370" max="15370" width="18.796875" style="18" customWidth="1"/>
-    <col min="15371" max="15371" width="12.33203125" style="18" customWidth="1"/>
-    <col min="15372" max="15616" width="18.796875" style="18"/>
-    <col min="15617" max="15617" width="11.33203125" style="18" customWidth="1"/>
-    <col min="15618" max="15618" width="83.33203125" style="18" customWidth="1"/>
+    <col min="15364" max="15369" width="18.86328125" style="18"/>
+    <col min="15370" max="15370" width="18.86328125" style="18" customWidth="1"/>
+    <col min="15371" max="15371" width="12.3984375" style="18" customWidth="1"/>
+    <col min="15372" max="15616" width="18.86328125" style="18"/>
+    <col min="15617" max="15617" width="11.265625" style="18" customWidth="1"/>
+    <col min="15618" max="15618" width="83.265625" style="18" customWidth="1"/>
     <col min="15619" max="15619" width="20.1328125" style="18" customWidth="1"/>
-    <col min="15620" max="15625" width="18.796875" style="18"/>
-    <col min="15626" max="15626" width="18.796875" style="18" customWidth="1"/>
-    <col min="15627" max="15627" width="12.33203125" style="18" customWidth="1"/>
-    <col min="15628" max="15872" width="18.796875" style="18"/>
-    <col min="15873" max="15873" width="11.33203125" style="18" customWidth="1"/>
-    <col min="15874" max="15874" width="83.33203125" style="18" customWidth="1"/>
+    <col min="15620" max="15625" width="18.86328125" style="18"/>
+    <col min="15626" max="15626" width="18.86328125" style="18" customWidth="1"/>
+    <col min="15627" max="15627" width="12.3984375" style="18" customWidth="1"/>
+    <col min="15628" max="15872" width="18.86328125" style="18"/>
+    <col min="15873" max="15873" width="11.265625" style="18" customWidth="1"/>
+    <col min="15874" max="15874" width="83.265625" style="18" customWidth="1"/>
     <col min="15875" max="15875" width="20.1328125" style="18" customWidth="1"/>
-    <col min="15876" max="15881" width="18.796875" style="18"/>
-    <col min="15882" max="15882" width="18.796875" style="18" customWidth="1"/>
-    <col min="15883" max="15883" width="12.33203125" style="18" customWidth="1"/>
-    <col min="15884" max="16128" width="18.796875" style="18"/>
-    <col min="16129" max="16129" width="11.33203125" style="18" customWidth="1"/>
-    <col min="16130" max="16130" width="83.33203125" style="18" customWidth="1"/>
+    <col min="15876" max="15881" width="18.86328125" style="18"/>
+    <col min="15882" max="15882" width="18.86328125" style="18" customWidth="1"/>
+    <col min="15883" max="15883" width="12.3984375" style="18" customWidth="1"/>
+    <col min="15884" max="16128" width="18.86328125" style="18"/>
+    <col min="16129" max="16129" width="11.265625" style="18" customWidth="1"/>
+    <col min="16130" max="16130" width="83.265625" style="18" customWidth="1"/>
     <col min="16131" max="16131" width="20.1328125" style="18" customWidth="1"/>
-    <col min="16132" max="16137" width="18.796875" style="18"/>
-    <col min="16138" max="16138" width="18.796875" style="18" customWidth="1"/>
-    <col min="16139" max="16139" width="12.33203125" style="18" customWidth="1"/>
-    <col min="16140" max="16384" width="18.796875" style="18"/>
+    <col min="16132" max="16137" width="18.86328125" style="18"/>
+    <col min="16138" max="16138" width="18.86328125" style="18" customWidth="1"/>
+    <col min="16139" max="16139" width="12.3984375" style="18" customWidth="1"/>
+    <col min="16140" max="16384" width="18.86328125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -52986,969 +52655,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4139DC-722A-0E45-9DF3-72404614CFF1}">
-  <dimension ref="A1:K54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="45"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="45"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="47"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="49"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="49"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="49"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="50"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="59">
-        <v>7726</v>
-      </c>
-      <c r="C17" s="59">
-        <v>1136</v>
-      </c>
-      <c r="D17" s="59">
-        <v>13</v>
-      </c>
-      <c r="E17" s="59">
-        <v>45</v>
-      </c>
-      <c r="F17" s="59">
-        <v>2988</v>
-      </c>
-      <c r="G17" s="59">
-        <v>27</v>
-      </c>
-      <c r="H17" s="59">
-        <v>277</v>
-      </c>
-      <c r="I17" s="59">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="59">
-        <v>15</v>
-      </c>
-      <c r="D18" s="59">
-        <v>10</v>
-      </c>
-      <c r="E18" s="59">
-        <v>7</v>
-      </c>
-      <c r="F18" s="59">
-        <v>1278</v>
-      </c>
-      <c r="G18" s="59">
-        <v>4</v>
-      </c>
-      <c r="H18" s="59">
-        <v>161</v>
-      </c>
-      <c r="I18" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="59">
-        <v>15</v>
-      </c>
-      <c r="D19" s="59">
-        <v>3</v>
-      </c>
-      <c r="E19" s="59">
-        <v>1</v>
-      </c>
-      <c r="F19" s="59">
-        <v>319</v>
-      </c>
-      <c r="G19" s="59">
-        <v>3</v>
-      </c>
-      <c r="H19" s="59">
-        <v>15</v>
-      </c>
-      <c r="I19" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="60"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="59">
-        <v>7</v>
-      </c>
-      <c r="E20" s="59">
-        <v>6</v>
-      </c>
-      <c r="F20" s="59">
-        <v>959</v>
-      </c>
-      <c r="G20" s="59">
-        <v>1</v>
-      </c>
-      <c r="H20" s="59">
-        <v>146</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="60"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="59">
-        <v>902</v>
-      </c>
-      <c r="D21" s="59">
-        <v>3</v>
-      </c>
-      <c r="E21" s="59">
-        <v>9</v>
-      </c>
-      <c r="F21" s="59">
-        <v>1494</v>
-      </c>
-      <c r="G21" s="59">
-        <v>11</v>
-      </c>
-      <c r="H21" s="59">
-        <v>115</v>
-      </c>
-      <c r="I21" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="59">
-        <v>150</v>
-      </c>
-      <c r="D22" s="59">
-        <v>3</v>
-      </c>
-      <c r="E22" s="59">
-        <v>2</v>
-      </c>
-      <c r="F22" s="59">
-        <v>1298</v>
-      </c>
-      <c r="G22" s="59">
-        <v>9</v>
-      </c>
-      <c r="H22" s="59">
-        <v>113</v>
-      </c>
-      <c r="I22" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="59">
-        <v>79</v>
-      </c>
-      <c r="D23" s="59">
-        <v>0</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="59">
-        <v>16</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="59">
-        <v>0</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="59">
-        <v>558</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="59">
-        <v>6</v>
-      </c>
-      <c r="F24" s="59">
-        <v>114</v>
-      </c>
-      <c r="G24" s="59">
-        <v>1</v>
-      </c>
-      <c r="H24" s="59">
-        <v>1</v>
-      </c>
-      <c r="I24" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="59">
-        <v>89</v>
-      </c>
-      <c r="D25" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="59">
-        <v>27</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="59">
-        <v>1</v>
-      </c>
-      <c r="F26" s="59">
-        <v>67</v>
-      </c>
-      <c r="G26" s="59">
-        <v>1</v>
-      </c>
-      <c r="H26" s="59">
-        <v>1</v>
-      </c>
-      <c r="I26" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="59">
-        <v>198</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="59">
-        <v>27</v>
-      </c>
-      <c r="F27" s="59">
-        <v>117</v>
-      </c>
-      <c r="G27" s="59">
-        <v>10</v>
-      </c>
-      <c r="H27" s="59">
-        <v>1</v>
-      </c>
-      <c r="I27" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="B28" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="59">
-        <v>102</v>
-      </c>
-      <c r="D28" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="59">
-        <v>1</v>
-      </c>
-      <c r="F28" s="59">
-        <v>96</v>
-      </c>
-      <c r="G28" s="59">
-        <v>2</v>
-      </c>
-      <c r="H28" s="59">
-        <v>1</v>
-      </c>
-      <c r="I28" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="59">
-        <v>64</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="59">
-        <v>22</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="59">
-        <v>11</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="59">
-        <v>0</v>
-      </c>
-      <c r="I30" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="59">
-        <v>6</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="59">
-        <v>19</v>
-      </c>
-      <c r="F31" s="59">
-        <v>1</v>
-      </c>
-      <c r="G31" s="59">
-        <v>8</v>
-      </c>
-      <c r="H31" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="59">
-        <v>7</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="59">
-        <v>4</v>
-      </c>
-      <c r="D33" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="59">
-        <v>6</v>
-      </c>
-      <c r="F33" s="59">
-        <v>3</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="59">
-        <v>0</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="59">
-        <v>3363</v>
-      </c>
-      <c r="C34" s="59">
-        <v>20</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="59">
-        <v>2</v>
-      </c>
-      <c r="F34" s="59">
-        <v>98</v>
-      </c>
-      <c r="G34" s="59">
-        <v>3</v>
-      </c>
-      <c r="H34" s="59">
-        <v>0</v>
-      </c>
-      <c r="I34" s="59">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-    </row>
-    <row r="39" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="64" t="s">
-        <v>320</v>
-      </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-    </row>
-    <row r="40" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="64" t="s">
-        <v>321</v>
-      </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-    </row>
-    <row r="41" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-    </row>
-    <row r="42" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="64" t="s">
-        <v>323</v>
-      </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-    </row>
-    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="64" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-    </row>
-    <row r="50" spans="1:9" ht="61.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A52" s="67"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="67"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="77.796875" customWidth="1"/>
+    <col min="1" max="1" width="10.73046875" customWidth="1"/>
+    <col min="2" max="2" width="77.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -54033,12 +52748,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="34">
         <v>0.2</v>
       </c>
@@ -54046,7 +52761,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="34">
         <v>0.35</v>
       </c>
@@ -54054,7 +52769,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="34">
         <v>0.6</v>
       </c>
@@ -54062,7 +52777,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="34">
         <v>0.8</v>
       </c>
@@ -54070,17 +52785,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="40">
         <f>1-A20</f>
         <v>0.65</v>
@@ -54089,18 +52804,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
         <v>296</v>
       </c>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="37">
         <f>SUM('Table 5.2'!E20:I20,'Table 5.2'!E24:I24,'Table 5.2'!E30:I30)/SUM('Table 5.2'!E20:I20,'Table 5.2'!E23:I23,'Table 5.2'!E29:I29)</f>
         <v>0.92744126578232378</v>
@@ -54108,15 +52823,8 @@
       <c r="B32" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="35">
-        <f>SUM('Table 5.6'!D18:H18,'Table 5.6'!D22:H22,'Table 5.6'!D28:H28)/SUM('Table 5.6'!D18:H18,'Table 5.6'!D21:H21,'Table 5.6'!D27:H27)</f>
-        <v>0.91931013242993531</v>
-      </c>
-      <c r="D32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="37">
         <f>SUM('Table 5.2'!E25:I28,'Table 5.2'!E31:I35)/SUM('Table 5.2'!E20:I20,'Table 5.2'!E23:I23,'Table 5.2'!E29:I29)</f>
         <v>7.1439987214319961E-2</v>
@@ -54124,28 +52832,14 @@
       <c r="B33" t="s">
         <v>298</v>
       </c>
-      <c r="C33" s="61">
-        <f>SUM('Table 5.6'!D23:H26,'Table 5.6'!D29:H33)/SUM('Table 5.6'!D18:H18,'Table 5.6'!D21:H21,'Table 5.6'!D27:H27)</f>
-        <v>8.0997844163843549E-2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="42">
-        <f>$A$32*$A$11+$A$33*$A$27</f>
+        <f>A32*A11+A33*A27</f>
         <v>0.22851035061589922</v>
       </c>
       <c r="B35" t="s">
         <v>300</v>
-      </c>
-      <c r="C35" s="42">
-        <f>$C$32*$A$11+$C$33*$A$27</f>
-        <v>0.23312666151482925</v>
-      </c>
-      <c r="D35" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -54156,21 +52850,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -54183,8 +52877,8 @@
         <v>2</v>
       </c>
       <c r="B2" s="41">
-        <f>Calculations!C35</f>
-        <v>0.23312666151482925</v>
+        <f>Calculations!A35</f>
+        <v>0.22851035061589922</v>
       </c>
     </row>
   </sheetData>
